--- a/public/documents/salaryslips/salary-slip-format-33.xlsx
+++ b/public/documents/salaryslips/salary-slip-format-33.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC0AA10-99F9-4046-B5A1-4F59657A23A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03239FB6-F65F-4A7E-893B-7B9535EF09EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8BB272DC-D853-4E79-BEC1-40621D7221C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D52A3F87-3EF7-49F2-B6CE-D96D70C0511C}"/>
   </bookViews>
   <sheets>
     <sheet name="Download more (2)" sheetId="2" r:id="rId1"/>
@@ -26,90 +26,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Company Name</t>
   </si>
   <si>
-    <t>Address</t>
+    <t>Address Pay Slip for the Month of ____________20______</t>
   </si>
   <si>
-    <t>Phone No.</t>
+    <t>Earnings</t>
   </si>
   <si>
-    <t>Email Address</t>
+    <t>Basic Salary</t>
   </si>
   <si>
-    <t>Salary Slip</t>
+    <t>House Rent Allowance</t>
+  </si>
+  <si>
+    <t>Conveyance Allowance</t>
+  </si>
+  <si>
+    <t>Medical Allowance</t>
+  </si>
+  <si>
+    <t>Special Allowance</t>
+  </si>
+  <si>
+    <t>Gross Salary</t>
+  </si>
+  <si>
+    <t>Other Earnings</t>
+  </si>
+  <si>
+    <t>Incentives</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Over Time Pay</t>
+  </si>
+  <si>
+    <t>Provident Fund</t>
+  </si>
+  <si>
+    <t>Professional Tax</t>
+  </si>
+  <si>
+    <t>Other Deduction</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Advance against Salary</t>
+  </si>
+  <si>
+    <t>Total Salary</t>
+  </si>
+  <si>
+    <t>Deductions</t>
+  </si>
+  <si>
+    <t>Income Tax</t>
+  </si>
+  <si>
+    <t>Personal Loan</t>
+  </si>
+  <si>
+    <t>Other Loan</t>
+  </si>
+  <si>
+    <t>Advance Salary</t>
+  </si>
+  <si>
+    <t>Deduction against Leave</t>
+  </si>
+  <si>
+    <t>Total Deduction</t>
+  </si>
+  <si>
+    <t>NET SALARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Employer Signature :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Employee Signature :</t>
+  </si>
+  <si>
+    <t>Gross Deduction</t>
   </si>
   <si>
     <t>Employee Name :</t>
   </si>
   <si>
-    <t>Email ID :</t>
+    <t>Employee ID :</t>
   </si>
   <si>
-    <t>Pay Period Begin Date :</t>
+    <t>Designation :</t>
   </si>
   <si>
-    <t>Pay Period End Date :</t>
+    <t>Department :</t>
   </si>
   <si>
-    <t>Rate :</t>
+    <t>DOJ :</t>
   </si>
   <si>
-    <t>Employee Address :</t>
+    <t>Total Working Days :</t>
   </si>
   <si>
-    <t>Earnings</t>
+    <t>Bank Name :</t>
   </si>
   <si>
-    <t>Regular Earnings</t>
+    <t>Bank A/C No :</t>
   </si>
   <si>
-    <t>Over Time</t>
+    <t>PAN No:</t>
   </si>
   <si>
-    <t>Incentive Pay</t>
+    <t>LOP Days :</t>
   </si>
   <si>
-    <t>Bonus</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Deductions</t>
-  </si>
-  <si>
-    <t>Provident Fund</t>
-  </si>
-  <si>
-    <t>Federal Withholdings</t>
-  </si>
-  <si>
-    <t>Federal MED</t>
-  </si>
-  <si>
-    <t>Total Deductions</t>
-  </si>
-  <si>
-    <t>Total Earnings</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>Current Net Salary</t>
-  </si>
-  <si>
-    <t>VTD Net Salary</t>
-  </si>
-  <si>
-    <t>Employee Signature :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Director Signature  </t>
+    <t>Address</t>
   </si>
   <si>
     <t>-</t>
@@ -134,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,35 +191,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -228,13 +239,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -261,11 +286,46 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="37">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -322,18 +382,41 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -343,7 +426,76 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -555,180 +707,202 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{8B881404-55C3-4591-82A4-8E85A4099E07}"/>
+    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{AE5BFA69-6166-4258-801C-68A9FD37AAFC}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1B523B1C-FEAE-4173-B008-69BC1BB4DC04}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{73040F95-41C9-4DEF-B3E3-746F4C784F48}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFCCECFF"/>
-      <color rgb="FFCCCC00"/>
+      <color rgb="FFCCCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -763,7 +937,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F5ABC0-F614-42AA-A1CC-6A117CA36FBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45122D3F-EB52-4CC2-B086-EA370F896601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -855,7 +1029,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B4DEA0-7EF5-4AA5-9889-D44C3C388CA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC34F3F0-EE2A-4311-B941-0938D59D04F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,7 +1121,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A25865-4BC3-49BB-BE59-DBD2C8C58E8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1004AF5-911A-451C-80B0-79F05B2253F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +1229,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714F7244-24E0-468A-95D6-71837305602F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80A2237-2AB8-4523-B02F-DDBA18B5EEE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,7 +1321,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B56ECB6-690E-4ECB-8A5A-FC479399120F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9B8172-8A86-4E1F-8ABF-FFC2C8959B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1252,7 +1426,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E64E989-6471-48BB-BEBC-079D812906CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40C4FC4-E847-4999-A007-7410D17D19F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1531,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D5EAE8-BCF6-4B20-B493-7580E2EB332D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C01066E-3184-4090-9DBD-2CB70B97BD5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1645,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6248406A-7F10-4646-B41A-C61D206168CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773C256D-7C4A-48AA-BF55-8A39ECF52F45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,7 +1759,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162DA74F-13C9-4A02-B3B7-52B9D7E37E46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C769A6F6-F41B-4ACD-9615-CA75301DBE5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1864,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D11379-DD9F-4F2B-B9F2-BEE8959FF00B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050EA736-938D-420E-8FA4-BD24559055A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1956,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB37758-787D-48BC-9A21-3B4CD3EE3015}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FAD142-8E83-4F17-8624-61961E988EB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +2048,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11E26A0-CC9E-435C-9A5C-866CADAD4E74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65136EB6-1626-4201-8087-76FD0FD789E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,7 +2153,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB34AE6-B2BF-42F8-BAE6-71AF554614AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE8BD9C-A356-47E8-8AF0-84E4782F811F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2261,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0BB23F-9B88-4A4C-A387-114909F90352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CFBE53-85CE-4EA4-84FA-E7377B1316BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2363,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A92A0A6-DEF7-4C9E-BBB4-5341323B8A3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B17EB84B-C2A1-41A2-9444-2E2CC1D7F5CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2455,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6E0D0A-7601-45A0-85ED-9BA3E59B6CB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1118C5-3F77-47ED-A616-A60EFE324648}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2547,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E6224D-056D-42E6-A61B-5251FB0087EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368502BB-7AB3-414B-AD84-80EE6AD5DB2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2652,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC17D4E-598C-44DE-AB4F-F9C9C6D7F7DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EF1129-B5FD-4AF3-80C8-581835543C54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2744,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD426D6-FE1F-435E-8B2E-4CBADD358247}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8AA77E-B145-4A4D-AF07-0C34A1911262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +2835,7 @@
         <xdr:cNvPr id="21" name="Picture 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D992248A-7DBD-428B-8A94-6AD926CF13DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEFB3C5-EC0F-4446-9B7C-082CCDA41D83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2909,7 @@
         <xdr:cNvPr id="22" name="Picture 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0FB1B52-4D09-4133-9C24-A61F38ABB3D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16E70F2-5700-4664-B825-BF1525F01F4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2984,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F26C43-AEFB-4F62-8A89-5B23BAA81E59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BBE4F5-8DDA-4AD7-BF49-2BFEB25B8C70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2914,7 +3088,7 @@
         <xdr:cNvPr id="24" name="Picture 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADD9FA5-BF91-4FF3-B26A-D728FFCD02A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423AE9D5-E017-4324-91F5-0F41FB188541}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,7 +3162,7 @@
         <xdr:cNvPr id="25" name="Picture 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFCEC61-C94D-4793-A6C7-2BE5FBBA28C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73AAD015-1269-4511-B4E7-181F8C808C59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3062,7 +3236,7 @@
         <xdr:cNvPr id="26" name="Picture 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAA9ADB-7443-4DEB-91F7-7681BC71E1AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139F5075-D7DB-4517-AC9C-173B1D6DC3A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3137,7 +3311,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2113EDF9-2FA5-4FB6-94FF-A3699F1C7E94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7830D8-12F5-4D26-BCEB-954B35DC6F5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3229,7 +3403,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793EE976-FFEA-4F55-BD94-A4300999A01D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CA8346-020F-4CD0-83CA-18D97F419041}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3321,7 +3495,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7FCC682-26A0-4405-9D5F-F6F6D04D8326}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BFCC0F1-BC16-4485-BA67-2DDA4320451A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3413,7 +3587,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4C1822-D8A5-458B-B33B-998E0BE8800B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0CA5AC-E6D6-4BF3-BB09-9BDAB81D099E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3505,7 +3679,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF281931-3326-4DA7-86DB-51D0F6F544BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DCEFA6-4D6F-4DCB-A90B-FEE676CC3D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3606,7 +3780,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63550341-47DB-42B1-82FA-30E84944CA12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1391C67E-A087-4D47-8082-E114A192404E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3978,7 +4152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBCDE89-2BCB-4561-8FBD-5643BEB6AB47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F194A892-BDEF-4BB2-8B79-C97C99CFDD54}">
   <dimension ref="B1:AB24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
@@ -3987,1508 +4161,1508 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="39"/>
-    <col min="7" max="7" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="39" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="39"/>
-    <col min="14" max="14" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="39" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="39" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" style="39"/>
-    <col min="21" max="21" width="3.7109375" style="39" customWidth="1"/>
-    <col min="22" max="22" width="4.7109375" style="39" customWidth="1"/>
-    <col min="23" max="23" width="3.7109375" style="39" customWidth="1"/>
-    <col min="24" max="27" width="9.140625" style="39"/>
-    <col min="28" max="28" width="3.7109375" style="39" customWidth="1"/>
-    <col min="29" max="256" width="9.140625" style="39"/>
-    <col min="257" max="257" width="3.140625" style="39" customWidth="1"/>
-    <col min="258" max="258" width="3.7109375" style="39" customWidth="1"/>
-    <col min="259" max="262" width="9.140625" style="39"/>
-    <col min="263" max="263" width="3.7109375" style="39" customWidth="1"/>
-    <col min="264" max="264" width="4.7109375" style="39" customWidth="1"/>
-    <col min="265" max="265" width="3.7109375" style="39" customWidth="1"/>
-    <col min="266" max="269" width="9.140625" style="39"/>
-    <col min="270" max="270" width="3.7109375" style="39" customWidth="1"/>
-    <col min="271" max="271" width="4.7109375" style="39" customWidth="1"/>
-    <col min="272" max="272" width="3.7109375" style="39" customWidth="1"/>
-    <col min="273" max="276" width="9.140625" style="39"/>
-    <col min="277" max="277" width="3.7109375" style="39" customWidth="1"/>
-    <col min="278" max="278" width="4.7109375" style="39" customWidth="1"/>
-    <col min="279" max="279" width="3.7109375" style="39" customWidth="1"/>
-    <col min="280" max="283" width="9.140625" style="39"/>
-    <col min="284" max="284" width="3.7109375" style="39" customWidth="1"/>
-    <col min="285" max="512" width="9.140625" style="39"/>
-    <col min="513" max="513" width="3.140625" style="39" customWidth="1"/>
-    <col min="514" max="514" width="3.7109375" style="39" customWidth="1"/>
-    <col min="515" max="518" width="9.140625" style="39"/>
-    <col min="519" max="519" width="3.7109375" style="39" customWidth="1"/>
-    <col min="520" max="520" width="4.7109375" style="39" customWidth="1"/>
-    <col min="521" max="521" width="3.7109375" style="39" customWidth="1"/>
-    <col min="522" max="525" width="9.140625" style="39"/>
-    <col min="526" max="526" width="3.7109375" style="39" customWidth="1"/>
-    <col min="527" max="527" width="4.7109375" style="39" customWidth="1"/>
-    <col min="528" max="528" width="3.7109375" style="39" customWidth="1"/>
-    <col min="529" max="532" width="9.140625" style="39"/>
-    <col min="533" max="533" width="3.7109375" style="39" customWidth="1"/>
-    <col min="534" max="534" width="4.7109375" style="39" customWidth="1"/>
-    <col min="535" max="535" width="3.7109375" style="39" customWidth="1"/>
-    <col min="536" max="539" width="9.140625" style="39"/>
-    <col min="540" max="540" width="3.7109375" style="39" customWidth="1"/>
-    <col min="541" max="768" width="9.140625" style="39"/>
-    <col min="769" max="769" width="3.140625" style="39" customWidth="1"/>
-    <col min="770" max="770" width="3.7109375" style="39" customWidth="1"/>
-    <col min="771" max="774" width="9.140625" style="39"/>
-    <col min="775" max="775" width="3.7109375" style="39" customWidth="1"/>
-    <col min="776" max="776" width="4.7109375" style="39" customWidth="1"/>
-    <col min="777" max="777" width="3.7109375" style="39" customWidth="1"/>
-    <col min="778" max="781" width="9.140625" style="39"/>
-    <col min="782" max="782" width="3.7109375" style="39" customWidth="1"/>
-    <col min="783" max="783" width="4.7109375" style="39" customWidth="1"/>
-    <col min="784" max="784" width="3.7109375" style="39" customWidth="1"/>
-    <col min="785" max="788" width="9.140625" style="39"/>
-    <col min="789" max="789" width="3.7109375" style="39" customWidth="1"/>
-    <col min="790" max="790" width="4.7109375" style="39" customWidth="1"/>
-    <col min="791" max="791" width="3.7109375" style="39" customWidth="1"/>
-    <col min="792" max="795" width="9.140625" style="39"/>
-    <col min="796" max="796" width="3.7109375" style="39" customWidth="1"/>
-    <col min="797" max="1024" width="9.140625" style="39"/>
-    <col min="1025" max="1025" width="3.140625" style="39" customWidth="1"/>
-    <col min="1026" max="1026" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1027" max="1030" width="9.140625" style="39"/>
-    <col min="1031" max="1031" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1032" max="1032" width="4.7109375" style="39" customWidth="1"/>
-    <col min="1033" max="1033" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1034" max="1037" width="9.140625" style="39"/>
-    <col min="1038" max="1038" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1039" max="1039" width="4.7109375" style="39" customWidth="1"/>
-    <col min="1040" max="1040" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1041" max="1044" width="9.140625" style="39"/>
-    <col min="1045" max="1045" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1046" max="1046" width="4.7109375" style="39" customWidth="1"/>
-    <col min="1047" max="1047" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1048" max="1051" width="9.140625" style="39"/>
-    <col min="1052" max="1052" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1053" max="1280" width="9.140625" style="39"/>
-    <col min="1281" max="1281" width="3.140625" style="39" customWidth="1"/>
-    <col min="1282" max="1282" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1283" max="1286" width="9.140625" style="39"/>
-    <col min="1287" max="1287" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1288" max="1288" width="4.7109375" style="39" customWidth="1"/>
-    <col min="1289" max="1289" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1290" max="1293" width="9.140625" style="39"/>
-    <col min="1294" max="1294" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1295" max="1295" width="4.7109375" style="39" customWidth="1"/>
-    <col min="1296" max="1296" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1297" max="1300" width="9.140625" style="39"/>
-    <col min="1301" max="1301" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1302" max="1302" width="4.7109375" style="39" customWidth="1"/>
-    <col min="1303" max="1303" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1304" max="1307" width="9.140625" style="39"/>
-    <col min="1308" max="1308" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1309" max="1536" width="9.140625" style="39"/>
-    <col min="1537" max="1537" width="3.140625" style="39" customWidth="1"/>
-    <col min="1538" max="1538" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1539" max="1542" width="9.140625" style="39"/>
-    <col min="1543" max="1543" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1544" max="1544" width="4.7109375" style="39" customWidth="1"/>
-    <col min="1545" max="1545" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1546" max="1549" width="9.140625" style="39"/>
-    <col min="1550" max="1550" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1551" max="1551" width="4.7109375" style="39" customWidth="1"/>
-    <col min="1552" max="1552" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1553" max="1556" width="9.140625" style="39"/>
-    <col min="1557" max="1557" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1558" max="1558" width="4.7109375" style="39" customWidth="1"/>
-    <col min="1559" max="1559" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1560" max="1563" width="9.140625" style="39"/>
-    <col min="1564" max="1564" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1565" max="1792" width="9.140625" style="39"/>
-    <col min="1793" max="1793" width="3.140625" style="39" customWidth="1"/>
-    <col min="1794" max="1794" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1795" max="1798" width="9.140625" style="39"/>
-    <col min="1799" max="1799" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1800" max="1800" width="4.7109375" style="39" customWidth="1"/>
-    <col min="1801" max="1801" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1802" max="1805" width="9.140625" style="39"/>
-    <col min="1806" max="1806" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1807" max="1807" width="4.7109375" style="39" customWidth="1"/>
-    <col min="1808" max="1808" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1809" max="1812" width="9.140625" style="39"/>
-    <col min="1813" max="1813" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1814" max="1814" width="4.7109375" style="39" customWidth="1"/>
-    <col min="1815" max="1815" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1816" max="1819" width="9.140625" style="39"/>
-    <col min="1820" max="1820" width="3.7109375" style="39" customWidth="1"/>
-    <col min="1821" max="2048" width="9.140625" style="39"/>
-    <col min="2049" max="2049" width="3.140625" style="39" customWidth="1"/>
-    <col min="2050" max="2050" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2051" max="2054" width="9.140625" style="39"/>
-    <col min="2055" max="2055" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2056" max="2056" width="4.7109375" style="39" customWidth="1"/>
-    <col min="2057" max="2057" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2058" max="2061" width="9.140625" style="39"/>
-    <col min="2062" max="2062" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2063" max="2063" width="4.7109375" style="39" customWidth="1"/>
-    <col min="2064" max="2064" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2065" max="2068" width="9.140625" style="39"/>
-    <col min="2069" max="2069" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2070" max="2070" width="4.7109375" style="39" customWidth="1"/>
-    <col min="2071" max="2071" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2072" max="2075" width="9.140625" style="39"/>
-    <col min="2076" max="2076" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2077" max="2304" width="9.140625" style="39"/>
-    <col min="2305" max="2305" width="3.140625" style="39" customWidth="1"/>
-    <col min="2306" max="2306" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2307" max="2310" width="9.140625" style="39"/>
-    <col min="2311" max="2311" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2312" max="2312" width="4.7109375" style="39" customWidth="1"/>
-    <col min="2313" max="2313" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2314" max="2317" width="9.140625" style="39"/>
-    <col min="2318" max="2318" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2319" max="2319" width="4.7109375" style="39" customWidth="1"/>
-    <col min="2320" max="2320" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2321" max="2324" width="9.140625" style="39"/>
-    <col min="2325" max="2325" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2326" max="2326" width="4.7109375" style="39" customWidth="1"/>
-    <col min="2327" max="2327" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2328" max="2331" width="9.140625" style="39"/>
-    <col min="2332" max="2332" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2333" max="2560" width="9.140625" style="39"/>
-    <col min="2561" max="2561" width="3.140625" style="39" customWidth="1"/>
-    <col min="2562" max="2562" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2563" max="2566" width="9.140625" style="39"/>
-    <col min="2567" max="2567" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2568" max="2568" width="4.7109375" style="39" customWidth="1"/>
-    <col min="2569" max="2569" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2570" max="2573" width="9.140625" style="39"/>
-    <col min="2574" max="2574" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2575" max="2575" width="4.7109375" style="39" customWidth="1"/>
-    <col min="2576" max="2576" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2577" max="2580" width="9.140625" style="39"/>
-    <col min="2581" max="2581" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2582" max="2582" width="4.7109375" style="39" customWidth="1"/>
-    <col min="2583" max="2583" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2584" max="2587" width="9.140625" style="39"/>
-    <col min="2588" max="2588" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2589" max="2816" width="9.140625" style="39"/>
-    <col min="2817" max="2817" width="3.140625" style="39" customWidth="1"/>
-    <col min="2818" max="2818" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2819" max="2822" width="9.140625" style="39"/>
-    <col min="2823" max="2823" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2824" max="2824" width="4.7109375" style="39" customWidth="1"/>
-    <col min="2825" max="2825" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2826" max="2829" width="9.140625" style="39"/>
-    <col min="2830" max="2830" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2831" max="2831" width="4.7109375" style="39" customWidth="1"/>
-    <col min="2832" max="2832" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2833" max="2836" width="9.140625" style="39"/>
-    <col min="2837" max="2837" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2838" max="2838" width="4.7109375" style="39" customWidth="1"/>
-    <col min="2839" max="2839" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2840" max="2843" width="9.140625" style="39"/>
-    <col min="2844" max="2844" width="3.7109375" style="39" customWidth="1"/>
-    <col min="2845" max="3072" width="9.140625" style="39"/>
-    <col min="3073" max="3073" width="3.140625" style="39" customWidth="1"/>
-    <col min="3074" max="3074" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3075" max="3078" width="9.140625" style="39"/>
-    <col min="3079" max="3079" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3080" max="3080" width="4.7109375" style="39" customWidth="1"/>
-    <col min="3081" max="3081" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3082" max="3085" width="9.140625" style="39"/>
-    <col min="3086" max="3086" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3087" max="3087" width="4.7109375" style="39" customWidth="1"/>
-    <col min="3088" max="3088" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3089" max="3092" width="9.140625" style="39"/>
-    <col min="3093" max="3093" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3094" max="3094" width="4.7109375" style="39" customWidth="1"/>
-    <col min="3095" max="3095" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3096" max="3099" width="9.140625" style="39"/>
-    <col min="3100" max="3100" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3101" max="3328" width="9.140625" style="39"/>
-    <col min="3329" max="3329" width="3.140625" style="39" customWidth="1"/>
-    <col min="3330" max="3330" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3331" max="3334" width="9.140625" style="39"/>
-    <col min="3335" max="3335" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3336" max="3336" width="4.7109375" style="39" customWidth="1"/>
-    <col min="3337" max="3337" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3338" max="3341" width="9.140625" style="39"/>
-    <col min="3342" max="3342" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3343" max="3343" width="4.7109375" style="39" customWidth="1"/>
-    <col min="3344" max="3344" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3345" max="3348" width="9.140625" style="39"/>
-    <col min="3349" max="3349" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3350" max="3350" width="4.7109375" style="39" customWidth="1"/>
-    <col min="3351" max="3351" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3352" max="3355" width="9.140625" style="39"/>
-    <col min="3356" max="3356" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3357" max="3584" width="9.140625" style="39"/>
-    <col min="3585" max="3585" width="3.140625" style="39" customWidth="1"/>
-    <col min="3586" max="3586" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3587" max="3590" width="9.140625" style="39"/>
-    <col min="3591" max="3591" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3592" max="3592" width="4.7109375" style="39" customWidth="1"/>
-    <col min="3593" max="3593" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3594" max="3597" width="9.140625" style="39"/>
-    <col min="3598" max="3598" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3599" max="3599" width="4.7109375" style="39" customWidth="1"/>
-    <col min="3600" max="3600" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3601" max="3604" width="9.140625" style="39"/>
-    <col min="3605" max="3605" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3606" max="3606" width="4.7109375" style="39" customWidth="1"/>
-    <col min="3607" max="3607" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3608" max="3611" width="9.140625" style="39"/>
-    <col min="3612" max="3612" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3613" max="3840" width="9.140625" style="39"/>
-    <col min="3841" max="3841" width="3.140625" style="39" customWidth="1"/>
-    <col min="3842" max="3842" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3843" max="3846" width="9.140625" style="39"/>
-    <col min="3847" max="3847" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3848" max="3848" width="4.7109375" style="39" customWidth="1"/>
-    <col min="3849" max="3849" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3850" max="3853" width="9.140625" style="39"/>
-    <col min="3854" max="3854" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3855" max="3855" width="4.7109375" style="39" customWidth="1"/>
-    <col min="3856" max="3856" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3857" max="3860" width="9.140625" style="39"/>
-    <col min="3861" max="3861" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3862" max="3862" width="4.7109375" style="39" customWidth="1"/>
-    <col min="3863" max="3863" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3864" max="3867" width="9.140625" style="39"/>
-    <col min="3868" max="3868" width="3.7109375" style="39" customWidth="1"/>
-    <col min="3869" max="4096" width="9.140625" style="39"/>
-    <col min="4097" max="4097" width="3.140625" style="39" customWidth="1"/>
-    <col min="4098" max="4098" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4099" max="4102" width="9.140625" style="39"/>
-    <col min="4103" max="4103" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4104" max="4104" width="4.7109375" style="39" customWidth="1"/>
-    <col min="4105" max="4105" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4106" max="4109" width="9.140625" style="39"/>
-    <col min="4110" max="4110" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4111" max="4111" width="4.7109375" style="39" customWidth="1"/>
-    <col min="4112" max="4112" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4113" max="4116" width="9.140625" style="39"/>
-    <col min="4117" max="4117" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4118" max="4118" width="4.7109375" style="39" customWidth="1"/>
-    <col min="4119" max="4119" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4120" max="4123" width="9.140625" style="39"/>
-    <col min="4124" max="4124" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4125" max="4352" width="9.140625" style="39"/>
-    <col min="4353" max="4353" width="3.140625" style="39" customWidth="1"/>
-    <col min="4354" max="4354" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4355" max="4358" width="9.140625" style="39"/>
-    <col min="4359" max="4359" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4360" max="4360" width="4.7109375" style="39" customWidth="1"/>
-    <col min="4361" max="4361" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4362" max="4365" width="9.140625" style="39"/>
-    <col min="4366" max="4366" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4367" max="4367" width="4.7109375" style="39" customWidth="1"/>
-    <col min="4368" max="4368" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4369" max="4372" width="9.140625" style="39"/>
-    <col min="4373" max="4373" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4374" max="4374" width="4.7109375" style="39" customWidth="1"/>
-    <col min="4375" max="4375" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4376" max="4379" width="9.140625" style="39"/>
-    <col min="4380" max="4380" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4381" max="4608" width="9.140625" style="39"/>
-    <col min="4609" max="4609" width="3.140625" style="39" customWidth="1"/>
-    <col min="4610" max="4610" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4611" max="4614" width="9.140625" style="39"/>
-    <col min="4615" max="4615" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4616" max="4616" width="4.7109375" style="39" customWidth="1"/>
-    <col min="4617" max="4617" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4618" max="4621" width="9.140625" style="39"/>
-    <col min="4622" max="4622" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4623" max="4623" width="4.7109375" style="39" customWidth="1"/>
-    <col min="4624" max="4624" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4625" max="4628" width="9.140625" style="39"/>
-    <col min="4629" max="4629" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4630" max="4630" width="4.7109375" style="39" customWidth="1"/>
-    <col min="4631" max="4631" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4632" max="4635" width="9.140625" style="39"/>
-    <col min="4636" max="4636" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4637" max="4864" width="9.140625" style="39"/>
-    <col min="4865" max="4865" width="3.140625" style="39" customWidth="1"/>
-    <col min="4866" max="4866" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4867" max="4870" width="9.140625" style="39"/>
-    <col min="4871" max="4871" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4872" max="4872" width="4.7109375" style="39" customWidth="1"/>
-    <col min="4873" max="4873" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4874" max="4877" width="9.140625" style="39"/>
-    <col min="4878" max="4878" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4879" max="4879" width="4.7109375" style="39" customWidth="1"/>
-    <col min="4880" max="4880" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4881" max="4884" width="9.140625" style="39"/>
-    <col min="4885" max="4885" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4886" max="4886" width="4.7109375" style="39" customWidth="1"/>
-    <col min="4887" max="4887" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4888" max="4891" width="9.140625" style="39"/>
-    <col min="4892" max="4892" width="3.7109375" style="39" customWidth="1"/>
-    <col min="4893" max="5120" width="9.140625" style="39"/>
-    <col min="5121" max="5121" width="3.140625" style="39" customWidth="1"/>
-    <col min="5122" max="5122" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5123" max="5126" width="9.140625" style="39"/>
-    <col min="5127" max="5127" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5128" max="5128" width="4.7109375" style="39" customWidth="1"/>
-    <col min="5129" max="5129" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5130" max="5133" width="9.140625" style="39"/>
-    <col min="5134" max="5134" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5135" max="5135" width="4.7109375" style="39" customWidth="1"/>
-    <col min="5136" max="5136" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5137" max="5140" width="9.140625" style="39"/>
-    <col min="5141" max="5141" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5142" max="5142" width="4.7109375" style="39" customWidth="1"/>
-    <col min="5143" max="5143" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5144" max="5147" width="9.140625" style="39"/>
-    <col min="5148" max="5148" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5149" max="5376" width="9.140625" style="39"/>
-    <col min="5377" max="5377" width="3.140625" style="39" customWidth="1"/>
-    <col min="5378" max="5378" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5379" max="5382" width="9.140625" style="39"/>
-    <col min="5383" max="5383" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5384" max="5384" width="4.7109375" style="39" customWidth="1"/>
-    <col min="5385" max="5385" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5386" max="5389" width="9.140625" style="39"/>
-    <col min="5390" max="5390" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5391" max="5391" width="4.7109375" style="39" customWidth="1"/>
-    <col min="5392" max="5392" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5393" max="5396" width="9.140625" style="39"/>
-    <col min="5397" max="5397" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5398" max="5398" width="4.7109375" style="39" customWidth="1"/>
-    <col min="5399" max="5399" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5400" max="5403" width="9.140625" style="39"/>
-    <col min="5404" max="5404" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5405" max="5632" width="9.140625" style="39"/>
-    <col min="5633" max="5633" width="3.140625" style="39" customWidth="1"/>
-    <col min="5634" max="5634" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5635" max="5638" width="9.140625" style="39"/>
-    <col min="5639" max="5639" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5640" max="5640" width="4.7109375" style="39" customWidth="1"/>
-    <col min="5641" max="5641" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5642" max="5645" width="9.140625" style="39"/>
-    <col min="5646" max="5646" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5647" max="5647" width="4.7109375" style="39" customWidth="1"/>
-    <col min="5648" max="5648" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5649" max="5652" width="9.140625" style="39"/>
-    <col min="5653" max="5653" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5654" max="5654" width="4.7109375" style="39" customWidth="1"/>
-    <col min="5655" max="5655" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5656" max="5659" width="9.140625" style="39"/>
-    <col min="5660" max="5660" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5661" max="5888" width="9.140625" style="39"/>
-    <col min="5889" max="5889" width="3.140625" style="39" customWidth="1"/>
-    <col min="5890" max="5890" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5891" max="5894" width="9.140625" style="39"/>
-    <col min="5895" max="5895" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5896" max="5896" width="4.7109375" style="39" customWidth="1"/>
-    <col min="5897" max="5897" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5898" max="5901" width="9.140625" style="39"/>
-    <col min="5902" max="5902" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5903" max="5903" width="4.7109375" style="39" customWidth="1"/>
-    <col min="5904" max="5904" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5905" max="5908" width="9.140625" style="39"/>
-    <col min="5909" max="5909" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5910" max="5910" width="4.7109375" style="39" customWidth="1"/>
-    <col min="5911" max="5911" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5912" max="5915" width="9.140625" style="39"/>
-    <col min="5916" max="5916" width="3.7109375" style="39" customWidth="1"/>
-    <col min="5917" max="6144" width="9.140625" style="39"/>
-    <col min="6145" max="6145" width="3.140625" style="39" customWidth="1"/>
-    <col min="6146" max="6146" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6147" max="6150" width="9.140625" style="39"/>
-    <col min="6151" max="6151" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6152" max="6152" width="4.7109375" style="39" customWidth="1"/>
-    <col min="6153" max="6153" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6154" max="6157" width="9.140625" style="39"/>
-    <col min="6158" max="6158" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6159" max="6159" width="4.7109375" style="39" customWidth="1"/>
-    <col min="6160" max="6160" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6161" max="6164" width="9.140625" style="39"/>
-    <col min="6165" max="6165" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6166" max="6166" width="4.7109375" style="39" customWidth="1"/>
-    <col min="6167" max="6167" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6168" max="6171" width="9.140625" style="39"/>
-    <col min="6172" max="6172" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6173" max="6400" width="9.140625" style="39"/>
-    <col min="6401" max="6401" width="3.140625" style="39" customWidth="1"/>
-    <col min="6402" max="6402" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6403" max="6406" width="9.140625" style="39"/>
-    <col min="6407" max="6407" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6408" max="6408" width="4.7109375" style="39" customWidth="1"/>
-    <col min="6409" max="6409" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6410" max="6413" width="9.140625" style="39"/>
-    <col min="6414" max="6414" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6415" max="6415" width="4.7109375" style="39" customWidth="1"/>
-    <col min="6416" max="6416" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6417" max="6420" width="9.140625" style="39"/>
-    <col min="6421" max="6421" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6422" max="6422" width="4.7109375" style="39" customWidth="1"/>
-    <col min="6423" max="6423" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6424" max="6427" width="9.140625" style="39"/>
-    <col min="6428" max="6428" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6429" max="6656" width="9.140625" style="39"/>
-    <col min="6657" max="6657" width="3.140625" style="39" customWidth="1"/>
-    <col min="6658" max="6658" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6659" max="6662" width="9.140625" style="39"/>
-    <col min="6663" max="6663" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6664" max="6664" width="4.7109375" style="39" customWidth="1"/>
-    <col min="6665" max="6665" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6666" max="6669" width="9.140625" style="39"/>
-    <col min="6670" max="6670" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6671" max="6671" width="4.7109375" style="39" customWidth="1"/>
-    <col min="6672" max="6672" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6673" max="6676" width="9.140625" style="39"/>
-    <col min="6677" max="6677" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6678" max="6678" width="4.7109375" style="39" customWidth="1"/>
-    <col min="6679" max="6679" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6680" max="6683" width="9.140625" style="39"/>
-    <col min="6684" max="6684" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6685" max="6912" width="9.140625" style="39"/>
-    <col min="6913" max="6913" width="3.140625" style="39" customWidth="1"/>
-    <col min="6914" max="6914" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6915" max="6918" width="9.140625" style="39"/>
-    <col min="6919" max="6919" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6920" max="6920" width="4.7109375" style="39" customWidth="1"/>
-    <col min="6921" max="6921" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6922" max="6925" width="9.140625" style="39"/>
-    <col min="6926" max="6926" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6927" max="6927" width="4.7109375" style="39" customWidth="1"/>
-    <col min="6928" max="6928" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6929" max="6932" width="9.140625" style="39"/>
-    <col min="6933" max="6933" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6934" max="6934" width="4.7109375" style="39" customWidth="1"/>
-    <col min="6935" max="6935" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6936" max="6939" width="9.140625" style="39"/>
-    <col min="6940" max="6940" width="3.7109375" style="39" customWidth="1"/>
-    <col min="6941" max="7168" width="9.140625" style="39"/>
-    <col min="7169" max="7169" width="3.140625" style="39" customWidth="1"/>
-    <col min="7170" max="7170" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7171" max="7174" width="9.140625" style="39"/>
-    <col min="7175" max="7175" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7176" max="7176" width="4.7109375" style="39" customWidth="1"/>
-    <col min="7177" max="7177" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7178" max="7181" width="9.140625" style="39"/>
-    <col min="7182" max="7182" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7183" max="7183" width="4.7109375" style="39" customWidth="1"/>
-    <col min="7184" max="7184" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7185" max="7188" width="9.140625" style="39"/>
-    <col min="7189" max="7189" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7190" max="7190" width="4.7109375" style="39" customWidth="1"/>
-    <col min="7191" max="7191" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7192" max="7195" width="9.140625" style="39"/>
-    <col min="7196" max="7196" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7197" max="7424" width="9.140625" style="39"/>
-    <col min="7425" max="7425" width="3.140625" style="39" customWidth="1"/>
-    <col min="7426" max="7426" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7427" max="7430" width="9.140625" style="39"/>
-    <col min="7431" max="7431" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7432" max="7432" width="4.7109375" style="39" customWidth="1"/>
-    <col min="7433" max="7433" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7434" max="7437" width="9.140625" style="39"/>
-    <col min="7438" max="7438" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7439" max="7439" width="4.7109375" style="39" customWidth="1"/>
-    <col min="7440" max="7440" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7441" max="7444" width="9.140625" style="39"/>
-    <col min="7445" max="7445" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7446" max="7446" width="4.7109375" style="39" customWidth="1"/>
-    <col min="7447" max="7447" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7448" max="7451" width="9.140625" style="39"/>
-    <col min="7452" max="7452" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7453" max="7680" width="9.140625" style="39"/>
-    <col min="7681" max="7681" width="3.140625" style="39" customWidth="1"/>
-    <col min="7682" max="7682" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7683" max="7686" width="9.140625" style="39"/>
-    <col min="7687" max="7687" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7688" max="7688" width="4.7109375" style="39" customWidth="1"/>
-    <col min="7689" max="7689" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7690" max="7693" width="9.140625" style="39"/>
-    <col min="7694" max="7694" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7695" max="7695" width="4.7109375" style="39" customWidth="1"/>
-    <col min="7696" max="7696" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7697" max="7700" width="9.140625" style="39"/>
-    <col min="7701" max="7701" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7702" max="7702" width="4.7109375" style="39" customWidth="1"/>
-    <col min="7703" max="7703" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7704" max="7707" width="9.140625" style="39"/>
-    <col min="7708" max="7708" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7709" max="7936" width="9.140625" style="39"/>
-    <col min="7937" max="7937" width="3.140625" style="39" customWidth="1"/>
-    <col min="7938" max="7938" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7939" max="7942" width="9.140625" style="39"/>
-    <col min="7943" max="7943" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7944" max="7944" width="4.7109375" style="39" customWidth="1"/>
-    <col min="7945" max="7945" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7946" max="7949" width="9.140625" style="39"/>
-    <col min="7950" max="7950" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7951" max="7951" width="4.7109375" style="39" customWidth="1"/>
-    <col min="7952" max="7952" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7953" max="7956" width="9.140625" style="39"/>
-    <col min="7957" max="7957" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7958" max="7958" width="4.7109375" style="39" customWidth="1"/>
-    <col min="7959" max="7959" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7960" max="7963" width="9.140625" style="39"/>
-    <col min="7964" max="7964" width="3.7109375" style="39" customWidth="1"/>
-    <col min="7965" max="8192" width="9.140625" style="39"/>
-    <col min="8193" max="8193" width="3.140625" style="39" customWidth="1"/>
-    <col min="8194" max="8194" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8195" max="8198" width="9.140625" style="39"/>
-    <col min="8199" max="8199" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8200" max="8200" width="4.7109375" style="39" customWidth="1"/>
-    <col min="8201" max="8201" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8202" max="8205" width="9.140625" style="39"/>
-    <col min="8206" max="8206" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8207" max="8207" width="4.7109375" style="39" customWidth="1"/>
-    <col min="8208" max="8208" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8209" max="8212" width="9.140625" style="39"/>
-    <col min="8213" max="8213" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8214" max="8214" width="4.7109375" style="39" customWidth="1"/>
-    <col min="8215" max="8215" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8216" max="8219" width="9.140625" style="39"/>
-    <col min="8220" max="8220" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8221" max="8448" width="9.140625" style="39"/>
-    <col min="8449" max="8449" width="3.140625" style="39" customWidth="1"/>
-    <col min="8450" max="8450" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8451" max="8454" width="9.140625" style="39"/>
-    <col min="8455" max="8455" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8456" max="8456" width="4.7109375" style="39" customWidth="1"/>
-    <col min="8457" max="8457" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8458" max="8461" width="9.140625" style="39"/>
-    <col min="8462" max="8462" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8463" max="8463" width="4.7109375" style="39" customWidth="1"/>
-    <col min="8464" max="8464" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8465" max="8468" width="9.140625" style="39"/>
-    <col min="8469" max="8469" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8470" max="8470" width="4.7109375" style="39" customWidth="1"/>
-    <col min="8471" max="8471" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8472" max="8475" width="9.140625" style="39"/>
-    <col min="8476" max="8476" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8477" max="8704" width="9.140625" style="39"/>
-    <col min="8705" max="8705" width="3.140625" style="39" customWidth="1"/>
-    <col min="8706" max="8706" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8707" max="8710" width="9.140625" style="39"/>
-    <col min="8711" max="8711" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8712" max="8712" width="4.7109375" style="39" customWidth="1"/>
-    <col min="8713" max="8713" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8714" max="8717" width="9.140625" style="39"/>
-    <col min="8718" max="8718" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8719" max="8719" width="4.7109375" style="39" customWidth="1"/>
-    <col min="8720" max="8720" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8721" max="8724" width="9.140625" style="39"/>
-    <col min="8725" max="8725" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8726" max="8726" width="4.7109375" style="39" customWidth="1"/>
-    <col min="8727" max="8727" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8728" max="8731" width="9.140625" style="39"/>
-    <col min="8732" max="8732" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8733" max="8960" width="9.140625" style="39"/>
-    <col min="8961" max="8961" width="3.140625" style="39" customWidth="1"/>
-    <col min="8962" max="8962" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8963" max="8966" width="9.140625" style="39"/>
-    <col min="8967" max="8967" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8968" max="8968" width="4.7109375" style="39" customWidth="1"/>
-    <col min="8969" max="8969" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8970" max="8973" width="9.140625" style="39"/>
-    <col min="8974" max="8974" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8975" max="8975" width="4.7109375" style="39" customWidth="1"/>
-    <col min="8976" max="8976" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8977" max="8980" width="9.140625" style="39"/>
-    <col min="8981" max="8981" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8982" max="8982" width="4.7109375" style="39" customWidth="1"/>
-    <col min="8983" max="8983" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8984" max="8987" width="9.140625" style="39"/>
-    <col min="8988" max="8988" width="3.7109375" style="39" customWidth="1"/>
-    <col min="8989" max="9216" width="9.140625" style="39"/>
-    <col min="9217" max="9217" width="3.140625" style="39" customWidth="1"/>
-    <col min="9218" max="9218" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9219" max="9222" width="9.140625" style="39"/>
-    <col min="9223" max="9223" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9224" max="9224" width="4.7109375" style="39" customWidth="1"/>
-    <col min="9225" max="9225" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9226" max="9229" width="9.140625" style="39"/>
-    <col min="9230" max="9230" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9231" max="9231" width="4.7109375" style="39" customWidth="1"/>
-    <col min="9232" max="9232" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9233" max="9236" width="9.140625" style="39"/>
-    <col min="9237" max="9237" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9238" max="9238" width="4.7109375" style="39" customWidth="1"/>
-    <col min="9239" max="9239" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9240" max="9243" width="9.140625" style="39"/>
-    <col min="9244" max="9244" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9245" max="9472" width="9.140625" style="39"/>
-    <col min="9473" max="9473" width="3.140625" style="39" customWidth="1"/>
-    <col min="9474" max="9474" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9475" max="9478" width="9.140625" style="39"/>
-    <col min="9479" max="9479" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9480" max="9480" width="4.7109375" style="39" customWidth="1"/>
-    <col min="9481" max="9481" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9482" max="9485" width="9.140625" style="39"/>
-    <col min="9486" max="9486" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9487" max="9487" width="4.7109375" style="39" customWidth="1"/>
-    <col min="9488" max="9488" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9489" max="9492" width="9.140625" style="39"/>
-    <col min="9493" max="9493" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9494" max="9494" width="4.7109375" style="39" customWidth="1"/>
-    <col min="9495" max="9495" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9496" max="9499" width="9.140625" style="39"/>
-    <col min="9500" max="9500" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9501" max="9728" width="9.140625" style="39"/>
-    <col min="9729" max="9729" width="3.140625" style="39" customWidth="1"/>
-    <col min="9730" max="9730" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9731" max="9734" width="9.140625" style="39"/>
-    <col min="9735" max="9735" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9736" max="9736" width="4.7109375" style="39" customWidth="1"/>
-    <col min="9737" max="9737" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9738" max="9741" width="9.140625" style="39"/>
-    <col min="9742" max="9742" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9743" max="9743" width="4.7109375" style="39" customWidth="1"/>
-    <col min="9744" max="9744" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9745" max="9748" width="9.140625" style="39"/>
-    <col min="9749" max="9749" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9750" max="9750" width="4.7109375" style="39" customWidth="1"/>
-    <col min="9751" max="9751" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9752" max="9755" width="9.140625" style="39"/>
-    <col min="9756" max="9756" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9757" max="9984" width="9.140625" style="39"/>
-    <col min="9985" max="9985" width="3.140625" style="39" customWidth="1"/>
-    <col min="9986" max="9986" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9987" max="9990" width="9.140625" style="39"/>
-    <col min="9991" max="9991" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9992" max="9992" width="4.7109375" style="39" customWidth="1"/>
-    <col min="9993" max="9993" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9994" max="9997" width="9.140625" style="39"/>
-    <col min="9998" max="9998" width="3.7109375" style="39" customWidth="1"/>
-    <col min="9999" max="9999" width="4.7109375" style="39" customWidth="1"/>
-    <col min="10000" max="10000" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10001" max="10004" width="9.140625" style="39"/>
-    <col min="10005" max="10005" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10006" max="10006" width="4.7109375" style="39" customWidth="1"/>
-    <col min="10007" max="10007" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10008" max="10011" width="9.140625" style="39"/>
-    <col min="10012" max="10012" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10013" max="10240" width="9.140625" style="39"/>
-    <col min="10241" max="10241" width="3.140625" style="39" customWidth="1"/>
-    <col min="10242" max="10242" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10243" max="10246" width="9.140625" style="39"/>
-    <col min="10247" max="10247" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10248" max="10248" width="4.7109375" style="39" customWidth="1"/>
-    <col min="10249" max="10249" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10250" max="10253" width="9.140625" style="39"/>
-    <col min="10254" max="10254" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10255" max="10255" width="4.7109375" style="39" customWidth="1"/>
-    <col min="10256" max="10256" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10257" max="10260" width="9.140625" style="39"/>
-    <col min="10261" max="10261" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10262" max="10262" width="4.7109375" style="39" customWidth="1"/>
-    <col min="10263" max="10263" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10264" max="10267" width="9.140625" style="39"/>
-    <col min="10268" max="10268" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10269" max="10496" width="9.140625" style="39"/>
-    <col min="10497" max="10497" width="3.140625" style="39" customWidth="1"/>
-    <col min="10498" max="10498" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10499" max="10502" width="9.140625" style="39"/>
-    <col min="10503" max="10503" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10504" max="10504" width="4.7109375" style="39" customWidth="1"/>
-    <col min="10505" max="10505" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10506" max="10509" width="9.140625" style="39"/>
-    <col min="10510" max="10510" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10511" max="10511" width="4.7109375" style="39" customWidth="1"/>
-    <col min="10512" max="10512" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10513" max="10516" width="9.140625" style="39"/>
-    <col min="10517" max="10517" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10518" max="10518" width="4.7109375" style="39" customWidth="1"/>
-    <col min="10519" max="10519" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10520" max="10523" width="9.140625" style="39"/>
-    <col min="10524" max="10524" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10525" max="10752" width="9.140625" style="39"/>
-    <col min="10753" max="10753" width="3.140625" style="39" customWidth="1"/>
-    <col min="10754" max="10754" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10755" max="10758" width="9.140625" style="39"/>
-    <col min="10759" max="10759" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10760" max="10760" width="4.7109375" style="39" customWidth="1"/>
-    <col min="10761" max="10761" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10762" max="10765" width="9.140625" style="39"/>
-    <col min="10766" max="10766" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10767" max="10767" width="4.7109375" style="39" customWidth="1"/>
-    <col min="10768" max="10768" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10769" max="10772" width="9.140625" style="39"/>
-    <col min="10773" max="10773" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10774" max="10774" width="4.7109375" style="39" customWidth="1"/>
-    <col min="10775" max="10775" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10776" max="10779" width="9.140625" style="39"/>
-    <col min="10780" max="10780" width="3.7109375" style="39" customWidth="1"/>
-    <col min="10781" max="11008" width="9.140625" style="39"/>
-    <col min="11009" max="11009" width="3.140625" style="39" customWidth="1"/>
-    <col min="11010" max="11010" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11011" max="11014" width="9.140625" style="39"/>
-    <col min="11015" max="11015" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11016" max="11016" width="4.7109375" style="39" customWidth="1"/>
-    <col min="11017" max="11017" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11018" max="11021" width="9.140625" style="39"/>
-    <col min="11022" max="11022" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11023" max="11023" width="4.7109375" style="39" customWidth="1"/>
-    <col min="11024" max="11024" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11025" max="11028" width="9.140625" style="39"/>
-    <col min="11029" max="11029" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11030" max="11030" width="4.7109375" style="39" customWidth="1"/>
-    <col min="11031" max="11031" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11032" max="11035" width="9.140625" style="39"/>
-    <col min="11036" max="11036" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11037" max="11264" width="9.140625" style="39"/>
-    <col min="11265" max="11265" width="3.140625" style="39" customWidth="1"/>
-    <col min="11266" max="11266" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11267" max="11270" width="9.140625" style="39"/>
-    <col min="11271" max="11271" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11272" max="11272" width="4.7109375" style="39" customWidth="1"/>
-    <col min="11273" max="11273" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11274" max="11277" width="9.140625" style="39"/>
-    <col min="11278" max="11278" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11279" max="11279" width="4.7109375" style="39" customWidth="1"/>
-    <col min="11280" max="11280" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11281" max="11284" width="9.140625" style="39"/>
-    <col min="11285" max="11285" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11286" max="11286" width="4.7109375" style="39" customWidth="1"/>
-    <col min="11287" max="11287" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11288" max="11291" width="9.140625" style="39"/>
-    <col min="11292" max="11292" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11293" max="11520" width="9.140625" style="39"/>
-    <col min="11521" max="11521" width="3.140625" style="39" customWidth="1"/>
-    <col min="11522" max="11522" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11523" max="11526" width="9.140625" style="39"/>
-    <col min="11527" max="11527" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11528" max="11528" width="4.7109375" style="39" customWidth="1"/>
-    <col min="11529" max="11529" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11530" max="11533" width="9.140625" style="39"/>
-    <col min="11534" max="11534" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11535" max="11535" width="4.7109375" style="39" customWidth="1"/>
-    <col min="11536" max="11536" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11537" max="11540" width="9.140625" style="39"/>
-    <col min="11541" max="11541" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11542" max="11542" width="4.7109375" style="39" customWidth="1"/>
-    <col min="11543" max="11543" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11544" max="11547" width="9.140625" style="39"/>
-    <col min="11548" max="11548" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11549" max="11776" width="9.140625" style="39"/>
-    <col min="11777" max="11777" width="3.140625" style="39" customWidth="1"/>
-    <col min="11778" max="11778" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11779" max="11782" width="9.140625" style="39"/>
-    <col min="11783" max="11783" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11784" max="11784" width="4.7109375" style="39" customWidth="1"/>
-    <col min="11785" max="11785" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11786" max="11789" width="9.140625" style="39"/>
-    <col min="11790" max="11790" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11791" max="11791" width="4.7109375" style="39" customWidth="1"/>
-    <col min="11792" max="11792" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11793" max="11796" width="9.140625" style="39"/>
-    <col min="11797" max="11797" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11798" max="11798" width="4.7109375" style="39" customWidth="1"/>
-    <col min="11799" max="11799" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11800" max="11803" width="9.140625" style="39"/>
-    <col min="11804" max="11804" width="3.7109375" style="39" customWidth="1"/>
-    <col min="11805" max="12032" width="9.140625" style="39"/>
-    <col min="12033" max="12033" width="3.140625" style="39" customWidth="1"/>
-    <col min="12034" max="12034" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12035" max="12038" width="9.140625" style="39"/>
-    <col min="12039" max="12039" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12040" max="12040" width="4.7109375" style="39" customWidth="1"/>
-    <col min="12041" max="12041" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12042" max="12045" width="9.140625" style="39"/>
-    <col min="12046" max="12046" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12047" max="12047" width="4.7109375" style="39" customWidth="1"/>
-    <col min="12048" max="12048" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12049" max="12052" width="9.140625" style="39"/>
-    <col min="12053" max="12053" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12054" max="12054" width="4.7109375" style="39" customWidth="1"/>
-    <col min="12055" max="12055" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12056" max="12059" width="9.140625" style="39"/>
-    <col min="12060" max="12060" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12061" max="12288" width="9.140625" style="39"/>
-    <col min="12289" max="12289" width="3.140625" style="39" customWidth="1"/>
-    <col min="12290" max="12290" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12291" max="12294" width="9.140625" style="39"/>
-    <col min="12295" max="12295" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12296" max="12296" width="4.7109375" style="39" customWidth="1"/>
-    <col min="12297" max="12297" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12298" max="12301" width="9.140625" style="39"/>
-    <col min="12302" max="12302" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12303" max="12303" width="4.7109375" style="39" customWidth="1"/>
-    <col min="12304" max="12304" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12305" max="12308" width="9.140625" style="39"/>
-    <col min="12309" max="12309" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12310" max="12310" width="4.7109375" style="39" customWidth="1"/>
-    <col min="12311" max="12311" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12312" max="12315" width="9.140625" style="39"/>
-    <col min="12316" max="12316" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12317" max="12544" width="9.140625" style="39"/>
-    <col min="12545" max="12545" width="3.140625" style="39" customWidth="1"/>
-    <col min="12546" max="12546" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12547" max="12550" width="9.140625" style="39"/>
-    <col min="12551" max="12551" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12552" max="12552" width="4.7109375" style="39" customWidth="1"/>
-    <col min="12553" max="12553" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12554" max="12557" width="9.140625" style="39"/>
-    <col min="12558" max="12558" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12559" max="12559" width="4.7109375" style="39" customWidth="1"/>
-    <col min="12560" max="12560" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12561" max="12564" width="9.140625" style="39"/>
-    <col min="12565" max="12565" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12566" max="12566" width="4.7109375" style="39" customWidth="1"/>
-    <col min="12567" max="12567" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12568" max="12571" width="9.140625" style="39"/>
-    <col min="12572" max="12572" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12573" max="12800" width="9.140625" style="39"/>
-    <col min="12801" max="12801" width="3.140625" style="39" customWidth="1"/>
-    <col min="12802" max="12802" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12803" max="12806" width="9.140625" style="39"/>
-    <col min="12807" max="12807" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12808" max="12808" width="4.7109375" style="39" customWidth="1"/>
-    <col min="12809" max="12809" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12810" max="12813" width="9.140625" style="39"/>
-    <col min="12814" max="12814" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12815" max="12815" width="4.7109375" style="39" customWidth="1"/>
-    <col min="12816" max="12816" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12817" max="12820" width="9.140625" style="39"/>
-    <col min="12821" max="12821" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12822" max="12822" width="4.7109375" style="39" customWidth="1"/>
-    <col min="12823" max="12823" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12824" max="12827" width="9.140625" style="39"/>
-    <col min="12828" max="12828" width="3.7109375" style="39" customWidth="1"/>
-    <col min="12829" max="13056" width="9.140625" style="39"/>
-    <col min="13057" max="13057" width="3.140625" style="39" customWidth="1"/>
-    <col min="13058" max="13058" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13059" max="13062" width="9.140625" style="39"/>
-    <col min="13063" max="13063" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13064" max="13064" width="4.7109375" style="39" customWidth="1"/>
-    <col min="13065" max="13065" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13066" max="13069" width="9.140625" style="39"/>
-    <col min="13070" max="13070" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13071" max="13071" width="4.7109375" style="39" customWidth="1"/>
-    <col min="13072" max="13072" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13073" max="13076" width="9.140625" style="39"/>
-    <col min="13077" max="13077" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13078" max="13078" width="4.7109375" style="39" customWidth="1"/>
-    <col min="13079" max="13079" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13080" max="13083" width="9.140625" style="39"/>
-    <col min="13084" max="13084" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13085" max="13312" width="9.140625" style="39"/>
-    <col min="13313" max="13313" width="3.140625" style="39" customWidth="1"/>
-    <col min="13314" max="13314" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13315" max="13318" width="9.140625" style="39"/>
-    <col min="13319" max="13319" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13320" max="13320" width="4.7109375" style="39" customWidth="1"/>
-    <col min="13321" max="13321" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13322" max="13325" width="9.140625" style="39"/>
-    <col min="13326" max="13326" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13327" max="13327" width="4.7109375" style="39" customWidth="1"/>
-    <col min="13328" max="13328" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13329" max="13332" width="9.140625" style="39"/>
-    <col min="13333" max="13333" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13334" max="13334" width="4.7109375" style="39" customWidth="1"/>
-    <col min="13335" max="13335" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13336" max="13339" width="9.140625" style="39"/>
-    <col min="13340" max="13340" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13341" max="13568" width="9.140625" style="39"/>
-    <col min="13569" max="13569" width="3.140625" style="39" customWidth="1"/>
-    <col min="13570" max="13570" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13571" max="13574" width="9.140625" style="39"/>
-    <col min="13575" max="13575" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13576" max="13576" width="4.7109375" style="39" customWidth="1"/>
-    <col min="13577" max="13577" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13578" max="13581" width="9.140625" style="39"/>
-    <col min="13582" max="13582" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13583" max="13583" width="4.7109375" style="39" customWidth="1"/>
-    <col min="13584" max="13584" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13585" max="13588" width="9.140625" style="39"/>
-    <col min="13589" max="13589" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13590" max="13590" width="4.7109375" style="39" customWidth="1"/>
-    <col min="13591" max="13591" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13592" max="13595" width="9.140625" style="39"/>
-    <col min="13596" max="13596" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13597" max="13824" width="9.140625" style="39"/>
-    <col min="13825" max="13825" width="3.140625" style="39" customWidth="1"/>
-    <col min="13826" max="13826" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13827" max="13830" width="9.140625" style="39"/>
-    <col min="13831" max="13831" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13832" max="13832" width="4.7109375" style="39" customWidth="1"/>
-    <col min="13833" max="13833" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13834" max="13837" width="9.140625" style="39"/>
-    <col min="13838" max="13838" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13839" max="13839" width="4.7109375" style="39" customWidth="1"/>
-    <col min="13840" max="13840" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13841" max="13844" width="9.140625" style="39"/>
-    <col min="13845" max="13845" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13846" max="13846" width="4.7109375" style="39" customWidth="1"/>
-    <col min="13847" max="13847" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13848" max="13851" width="9.140625" style="39"/>
-    <col min="13852" max="13852" width="3.7109375" style="39" customWidth="1"/>
-    <col min="13853" max="14080" width="9.140625" style="39"/>
-    <col min="14081" max="14081" width="3.140625" style="39" customWidth="1"/>
-    <col min="14082" max="14082" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14083" max="14086" width="9.140625" style="39"/>
-    <col min="14087" max="14087" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14088" max="14088" width="4.7109375" style="39" customWidth="1"/>
-    <col min="14089" max="14089" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14090" max="14093" width="9.140625" style="39"/>
-    <col min="14094" max="14094" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14095" max="14095" width="4.7109375" style="39" customWidth="1"/>
-    <col min="14096" max="14096" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14097" max="14100" width="9.140625" style="39"/>
-    <col min="14101" max="14101" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14102" max="14102" width="4.7109375" style="39" customWidth="1"/>
-    <col min="14103" max="14103" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14104" max="14107" width="9.140625" style="39"/>
-    <col min="14108" max="14108" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14109" max="14336" width="9.140625" style="39"/>
-    <col min="14337" max="14337" width="3.140625" style="39" customWidth="1"/>
-    <col min="14338" max="14338" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14339" max="14342" width="9.140625" style="39"/>
-    <col min="14343" max="14343" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14344" max="14344" width="4.7109375" style="39" customWidth="1"/>
-    <col min="14345" max="14345" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14346" max="14349" width="9.140625" style="39"/>
-    <col min="14350" max="14350" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14351" max="14351" width="4.7109375" style="39" customWidth="1"/>
-    <col min="14352" max="14352" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14353" max="14356" width="9.140625" style="39"/>
-    <col min="14357" max="14357" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14358" max="14358" width="4.7109375" style="39" customWidth="1"/>
-    <col min="14359" max="14359" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14360" max="14363" width="9.140625" style="39"/>
-    <col min="14364" max="14364" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14365" max="14592" width="9.140625" style="39"/>
-    <col min="14593" max="14593" width="3.140625" style="39" customWidth="1"/>
-    <col min="14594" max="14594" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14595" max="14598" width="9.140625" style="39"/>
-    <col min="14599" max="14599" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14600" max="14600" width="4.7109375" style="39" customWidth="1"/>
-    <col min="14601" max="14601" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14602" max="14605" width="9.140625" style="39"/>
-    <col min="14606" max="14606" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14607" max="14607" width="4.7109375" style="39" customWidth="1"/>
-    <col min="14608" max="14608" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14609" max="14612" width="9.140625" style="39"/>
-    <col min="14613" max="14613" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14614" max="14614" width="4.7109375" style="39" customWidth="1"/>
-    <col min="14615" max="14615" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14616" max="14619" width="9.140625" style="39"/>
-    <col min="14620" max="14620" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14621" max="14848" width="9.140625" style="39"/>
-    <col min="14849" max="14849" width="3.140625" style="39" customWidth="1"/>
-    <col min="14850" max="14850" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14851" max="14854" width="9.140625" style="39"/>
-    <col min="14855" max="14855" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14856" max="14856" width="4.7109375" style="39" customWidth="1"/>
-    <col min="14857" max="14857" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14858" max="14861" width="9.140625" style="39"/>
-    <col min="14862" max="14862" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14863" max="14863" width="4.7109375" style="39" customWidth="1"/>
-    <col min="14864" max="14864" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14865" max="14868" width="9.140625" style="39"/>
-    <col min="14869" max="14869" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14870" max="14870" width="4.7109375" style="39" customWidth="1"/>
-    <col min="14871" max="14871" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14872" max="14875" width="9.140625" style="39"/>
-    <col min="14876" max="14876" width="3.7109375" style="39" customWidth="1"/>
-    <col min="14877" max="15104" width="9.140625" style="39"/>
-    <col min="15105" max="15105" width="3.140625" style="39" customWidth="1"/>
-    <col min="15106" max="15106" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15107" max="15110" width="9.140625" style="39"/>
-    <col min="15111" max="15111" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15112" max="15112" width="4.7109375" style="39" customWidth="1"/>
-    <col min="15113" max="15113" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15114" max="15117" width="9.140625" style="39"/>
-    <col min="15118" max="15118" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15119" max="15119" width="4.7109375" style="39" customWidth="1"/>
-    <col min="15120" max="15120" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15121" max="15124" width="9.140625" style="39"/>
-    <col min="15125" max="15125" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15126" max="15126" width="4.7109375" style="39" customWidth="1"/>
-    <col min="15127" max="15127" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15128" max="15131" width="9.140625" style="39"/>
-    <col min="15132" max="15132" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15133" max="15360" width="9.140625" style="39"/>
-    <col min="15361" max="15361" width="3.140625" style="39" customWidth="1"/>
-    <col min="15362" max="15362" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15363" max="15366" width="9.140625" style="39"/>
-    <col min="15367" max="15367" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15368" max="15368" width="4.7109375" style="39" customWidth="1"/>
-    <col min="15369" max="15369" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15370" max="15373" width="9.140625" style="39"/>
-    <col min="15374" max="15374" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15375" max="15375" width="4.7109375" style="39" customWidth="1"/>
-    <col min="15376" max="15376" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15377" max="15380" width="9.140625" style="39"/>
-    <col min="15381" max="15381" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15382" max="15382" width="4.7109375" style="39" customWidth="1"/>
-    <col min="15383" max="15383" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15384" max="15387" width="9.140625" style="39"/>
-    <col min="15388" max="15388" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15389" max="15616" width="9.140625" style="39"/>
-    <col min="15617" max="15617" width="3.140625" style="39" customWidth="1"/>
-    <col min="15618" max="15618" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15619" max="15622" width="9.140625" style="39"/>
-    <col min="15623" max="15623" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15624" max="15624" width="4.7109375" style="39" customWidth="1"/>
-    <col min="15625" max="15625" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15626" max="15629" width="9.140625" style="39"/>
-    <col min="15630" max="15630" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15631" max="15631" width="4.7109375" style="39" customWidth="1"/>
-    <col min="15632" max="15632" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15633" max="15636" width="9.140625" style="39"/>
-    <col min="15637" max="15637" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15638" max="15638" width="4.7109375" style="39" customWidth="1"/>
-    <col min="15639" max="15639" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15640" max="15643" width="9.140625" style="39"/>
-    <col min="15644" max="15644" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15645" max="15872" width="9.140625" style="39"/>
-    <col min="15873" max="15873" width="3.140625" style="39" customWidth="1"/>
-    <col min="15874" max="15874" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15875" max="15878" width="9.140625" style="39"/>
-    <col min="15879" max="15879" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15880" max="15880" width="4.7109375" style="39" customWidth="1"/>
-    <col min="15881" max="15881" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15882" max="15885" width="9.140625" style="39"/>
-    <col min="15886" max="15886" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15887" max="15887" width="4.7109375" style="39" customWidth="1"/>
-    <col min="15888" max="15888" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15889" max="15892" width="9.140625" style="39"/>
-    <col min="15893" max="15893" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15894" max="15894" width="4.7109375" style="39" customWidth="1"/>
-    <col min="15895" max="15895" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15896" max="15899" width="9.140625" style="39"/>
-    <col min="15900" max="15900" width="3.7109375" style="39" customWidth="1"/>
-    <col min="15901" max="16128" width="9.140625" style="39"/>
-    <col min="16129" max="16129" width="3.140625" style="39" customWidth="1"/>
-    <col min="16130" max="16130" width="3.7109375" style="39" customWidth="1"/>
-    <col min="16131" max="16134" width="9.140625" style="39"/>
-    <col min="16135" max="16135" width="3.7109375" style="39" customWidth="1"/>
-    <col min="16136" max="16136" width="4.7109375" style="39" customWidth="1"/>
-    <col min="16137" max="16137" width="3.7109375" style="39" customWidth="1"/>
-    <col min="16138" max="16141" width="9.140625" style="39"/>
-    <col min="16142" max="16142" width="3.7109375" style="39" customWidth="1"/>
-    <col min="16143" max="16143" width="4.7109375" style="39" customWidth="1"/>
-    <col min="16144" max="16144" width="3.7109375" style="39" customWidth="1"/>
-    <col min="16145" max="16148" width="9.140625" style="39"/>
-    <col min="16149" max="16149" width="3.7109375" style="39" customWidth="1"/>
-    <col min="16150" max="16150" width="4.7109375" style="39" customWidth="1"/>
-    <col min="16151" max="16151" width="3.7109375" style="39" customWidth="1"/>
-    <col min="16152" max="16155" width="9.140625" style="39"/>
-    <col min="16156" max="16156" width="3.7109375" style="39" customWidth="1"/>
-    <col min="16157" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="3.140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="46"/>
+    <col min="7" max="7" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="46"/>
+    <col min="14" max="14" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="46" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="46" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="46"/>
+    <col min="21" max="21" width="3.7109375" style="46" customWidth="1"/>
+    <col min="22" max="22" width="4.7109375" style="46" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" style="46" customWidth="1"/>
+    <col min="24" max="27" width="9.140625" style="46"/>
+    <col min="28" max="28" width="3.7109375" style="46" customWidth="1"/>
+    <col min="29" max="256" width="9.140625" style="46"/>
+    <col min="257" max="257" width="3.140625" style="46" customWidth="1"/>
+    <col min="258" max="258" width="3.7109375" style="46" customWidth="1"/>
+    <col min="259" max="262" width="9.140625" style="46"/>
+    <col min="263" max="263" width="3.7109375" style="46" customWidth="1"/>
+    <col min="264" max="264" width="4.7109375" style="46" customWidth="1"/>
+    <col min="265" max="265" width="3.7109375" style="46" customWidth="1"/>
+    <col min="266" max="269" width="9.140625" style="46"/>
+    <col min="270" max="270" width="3.7109375" style="46" customWidth="1"/>
+    <col min="271" max="271" width="4.7109375" style="46" customWidth="1"/>
+    <col min="272" max="272" width="3.7109375" style="46" customWidth="1"/>
+    <col min="273" max="276" width="9.140625" style="46"/>
+    <col min="277" max="277" width="3.7109375" style="46" customWidth="1"/>
+    <col min="278" max="278" width="4.7109375" style="46" customWidth="1"/>
+    <col min="279" max="279" width="3.7109375" style="46" customWidth="1"/>
+    <col min="280" max="283" width="9.140625" style="46"/>
+    <col min="284" max="284" width="3.7109375" style="46" customWidth="1"/>
+    <col min="285" max="512" width="9.140625" style="46"/>
+    <col min="513" max="513" width="3.140625" style="46" customWidth="1"/>
+    <col min="514" max="514" width="3.7109375" style="46" customWidth="1"/>
+    <col min="515" max="518" width="9.140625" style="46"/>
+    <col min="519" max="519" width="3.7109375" style="46" customWidth="1"/>
+    <col min="520" max="520" width="4.7109375" style="46" customWidth="1"/>
+    <col min="521" max="521" width="3.7109375" style="46" customWidth="1"/>
+    <col min="522" max="525" width="9.140625" style="46"/>
+    <col min="526" max="526" width="3.7109375" style="46" customWidth="1"/>
+    <col min="527" max="527" width="4.7109375" style="46" customWidth="1"/>
+    <col min="528" max="528" width="3.7109375" style="46" customWidth="1"/>
+    <col min="529" max="532" width="9.140625" style="46"/>
+    <col min="533" max="533" width="3.7109375" style="46" customWidth="1"/>
+    <col min="534" max="534" width="4.7109375" style="46" customWidth="1"/>
+    <col min="535" max="535" width="3.7109375" style="46" customWidth="1"/>
+    <col min="536" max="539" width="9.140625" style="46"/>
+    <col min="540" max="540" width="3.7109375" style="46" customWidth="1"/>
+    <col min="541" max="768" width="9.140625" style="46"/>
+    <col min="769" max="769" width="3.140625" style="46" customWidth="1"/>
+    <col min="770" max="770" width="3.7109375" style="46" customWidth="1"/>
+    <col min="771" max="774" width="9.140625" style="46"/>
+    <col min="775" max="775" width="3.7109375" style="46" customWidth="1"/>
+    <col min="776" max="776" width="4.7109375" style="46" customWidth="1"/>
+    <col min="777" max="777" width="3.7109375" style="46" customWidth="1"/>
+    <col min="778" max="781" width="9.140625" style="46"/>
+    <col min="782" max="782" width="3.7109375" style="46" customWidth="1"/>
+    <col min="783" max="783" width="4.7109375" style="46" customWidth="1"/>
+    <col min="784" max="784" width="3.7109375" style="46" customWidth="1"/>
+    <col min="785" max="788" width="9.140625" style="46"/>
+    <col min="789" max="789" width="3.7109375" style="46" customWidth="1"/>
+    <col min="790" max="790" width="4.7109375" style="46" customWidth="1"/>
+    <col min="791" max="791" width="3.7109375" style="46" customWidth="1"/>
+    <col min="792" max="795" width="9.140625" style="46"/>
+    <col min="796" max="796" width="3.7109375" style="46" customWidth="1"/>
+    <col min="797" max="1024" width="9.140625" style="46"/>
+    <col min="1025" max="1025" width="3.140625" style="46" customWidth="1"/>
+    <col min="1026" max="1026" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1027" max="1030" width="9.140625" style="46"/>
+    <col min="1031" max="1031" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1032" max="1032" width="4.7109375" style="46" customWidth="1"/>
+    <col min="1033" max="1033" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1034" max="1037" width="9.140625" style="46"/>
+    <col min="1038" max="1038" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1039" max="1039" width="4.7109375" style="46" customWidth="1"/>
+    <col min="1040" max="1040" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1041" max="1044" width="9.140625" style="46"/>
+    <col min="1045" max="1045" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1046" max="1046" width="4.7109375" style="46" customWidth="1"/>
+    <col min="1047" max="1047" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1048" max="1051" width="9.140625" style="46"/>
+    <col min="1052" max="1052" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1053" max="1280" width="9.140625" style="46"/>
+    <col min="1281" max="1281" width="3.140625" style="46" customWidth="1"/>
+    <col min="1282" max="1282" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1283" max="1286" width="9.140625" style="46"/>
+    <col min="1287" max="1287" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1288" max="1288" width="4.7109375" style="46" customWidth="1"/>
+    <col min="1289" max="1289" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1290" max="1293" width="9.140625" style="46"/>
+    <col min="1294" max="1294" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1295" max="1295" width="4.7109375" style="46" customWidth="1"/>
+    <col min="1296" max="1296" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1297" max="1300" width="9.140625" style="46"/>
+    <col min="1301" max="1301" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1302" max="1302" width="4.7109375" style="46" customWidth="1"/>
+    <col min="1303" max="1303" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1304" max="1307" width="9.140625" style="46"/>
+    <col min="1308" max="1308" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1309" max="1536" width="9.140625" style="46"/>
+    <col min="1537" max="1537" width="3.140625" style="46" customWidth="1"/>
+    <col min="1538" max="1538" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1539" max="1542" width="9.140625" style="46"/>
+    <col min="1543" max="1543" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1544" max="1544" width="4.7109375" style="46" customWidth="1"/>
+    <col min="1545" max="1545" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1546" max="1549" width="9.140625" style="46"/>
+    <col min="1550" max="1550" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1551" max="1551" width="4.7109375" style="46" customWidth="1"/>
+    <col min="1552" max="1552" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1553" max="1556" width="9.140625" style="46"/>
+    <col min="1557" max="1557" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1558" max="1558" width="4.7109375" style="46" customWidth="1"/>
+    <col min="1559" max="1559" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1560" max="1563" width="9.140625" style="46"/>
+    <col min="1564" max="1564" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1565" max="1792" width="9.140625" style="46"/>
+    <col min="1793" max="1793" width="3.140625" style="46" customWidth="1"/>
+    <col min="1794" max="1794" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1795" max="1798" width="9.140625" style="46"/>
+    <col min="1799" max="1799" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1800" max="1800" width="4.7109375" style="46" customWidth="1"/>
+    <col min="1801" max="1801" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1802" max="1805" width="9.140625" style="46"/>
+    <col min="1806" max="1806" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1807" max="1807" width="4.7109375" style="46" customWidth="1"/>
+    <col min="1808" max="1808" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1809" max="1812" width="9.140625" style="46"/>
+    <col min="1813" max="1813" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1814" max="1814" width="4.7109375" style="46" customWidth="1"/>
+    <col min="1815" max="1815" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1816" max="1819" width="9.140625" style="46"/>
+    <col min="1820" max="1820" width="3.7109375" style="46" customWidth="1"/>
+    <col min="1821" max="2048" width="9.140625" style="46"/>
+    <col min="2049" max="2049" width="3.140625" style="46" customWidth="1"/>
+    <col min="2050" max="2050" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2051" max="2054" width="9.140625" style="46"/>
+    <col min="2055" max="2055" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2056" max="2056" width="4.7109375" style="46" customWidth="1"/>
+    <col min="2057" max="2057" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2058" max="2061" width="9.140625" style="46"/>
+    <col min="2062" max="2062" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2063" max="2063" width="4.7109375" style="46" customWidth="1"/>
+    <col min="2064" max="2064" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2065" max="2068" width="9.140625" style="46"/>
+    <col min="2069" max="2069" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2070" max="2070" width="4.7109375" style="46" customWidth="1"/>
+    <col min="2071" max="2071" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2072" max="2075" width="9.140625" style="46"/>
+    <col min="2076" max="2076" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2077" max="2304" width="9.140625" style="46"/>
+    <col min="2305" max="2305" width="3.140625" style="46" customWidth="1"/>
+    <col min="2306" max="2306" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2307" max="2310" width="9.140625" style="46"/>
+    <col min="2311" max="2311" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2312" max="2312" width="4.7109375" style="46" customWidth="1"/>
+    <col min="2313" max="2313" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2314" max="2317" width="9.140625" style="46"/>
+    <col min="2318" max="2318" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2319" max="2319" width="4.7109375" style="46" customWidth="1"/>
+    <col min="2320" max="2320" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2321" max="2324" width="9.140625" style="46"/>
+    <col min="2325" max="2325" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2326" max="2326" width="4.7109375" style="46" customWidth="1"/>
+    <col min="2327" max="2327" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2328" max="2331" width="9.140625" style="46"/>
+    <col min="2332" max="2332" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2333" max="2560" width="9.140625" style="46"/>
+    <col min="2561" max="2561" width="3.140625" style="46" customWidth="1"/>
+    <col min="2562" max="2562" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2563" max="2566" width="9.140625" style="46"/>
+    <col min="2567" max="2567" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2568" max="2568" width="4.7109375" style="46" customWidth="1"/>
+    <col min="2569" max="2569" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2570" max="2573" width="9.140625" style="46"/>
+    <col min="2574" max="2574" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2575" max="2575" width="4.7109375" style="46" customWidth="1"/>
+    <col min="2576" max="2576" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2577" max="2580" width="9.140625" style="46"/>
+    <col min="2581" max="2581" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2582" max="2582" width="4.7109375" style="46" customWidth="1"/>
+    <col min="2583" max="2583" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2584" max="2587" width="9.140625" style="46"/>
+    <col min="2588" max="2588" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2589" max="2816" width="9.140625" style="46"/>
+    <col min="2817" max="2817" width="3.140625" style="46" customWidth="1"/>
+    <col min="2818" max="2818" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2819" max="2822" width="9.140625" style="46"/>
+    <col min="2823" max="2823" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2824" max="2824" width="4.7109375" style="46" customWidth="1"/>
+    <col min="2825" max="2825" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2826" max="2829" width="9.140625" style="46"/>
+    <col min="2830" max="2830" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2831" max="2831" width="4.7109375" style="46" customWidth="1"/>
+    <col min="2832" max="2832" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2833" max="2836" width="9.140625" style="46"/>
+    <col min="2837" max="2837" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2838" max="2838" width="4.7109375" style="46" customWidth="1"/>
+    <col min="2839" max="2839" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2840" max="2843" width="9.140625" style="46"/>
+    <col min="2844" max="2844" width="3.7109375" style="46" customWidth="1"/>
+    <col min="2845" max="3072" width="9.140625" style="46"/>
+    <col min="3073" max="3073" width="3.140625" style="46" customWidth="1"/>
+    <col min="3074" max="3074" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3075" max="3078" width="9.140625" style="46"/>
+    <col min="3079" max="3079" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3080" max="3080" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3081" max="3081" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3082" max="3085" width="9.140625" style="46"/>
+    <col min="3086" max="3086" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3087" max="3087" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3088" max="3088" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3089" max="3092" width="9.140625" style="46"/>
+    <col min="3093" max="3093" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3094" max="3094" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3095" max="3095" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3096" max="3099" width="9.140625" style="46"/>
+    <col min="3100" max="3100" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3101" max="3328" width="9.140625" style="46"/>
+    <col min="3329" max="3329" width="3.140625" style="46" customWidth="1"/>
+    <col min="3330" max="3330" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3331" max="3334" width="9.140625" style="46"/>
+    <col min="3335" max="3335" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3336" max="3336" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3337" max="3337" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3338" max="3341" width="9.140625" style="46"/>
+    <col min="3342" max="3342" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3343" max="3343" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3344" max="3344" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3345" max="3348" width="9.140625" style="46"/>
+    <col min="3349" max="3349" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3350" max="3350" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3351" max="3351" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3352" max="3355" width="9.140625" style="46"/>
+    <col min="3356" max="3356" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3357" max="3584" width="9.140625" style="46"/>
+    <col min="3585" max="3585" width="3.140625" style="46" customWidth="1"/>
+    <col min="3586" max="3586" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3587" max="3590" width="9.140625" style="46"/>
+    <col min="3591" max="3591" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3592" max="3592" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3593" max="3593" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3594" max="3597" width="9.140625" style="46"/>
+    <col min="3598" max="3598" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3599" max="3599" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3600" max="3600" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3601" max="3604" width="9.140625" style="46"/>
+    <col min="3605" max="3605" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3606" max="3606" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3607" max="3607" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3608" max="3611" width="9.140625" style="46"/>
+    <col min="3612" max="3612" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3613" max="3840" width="9.140625" style="46"/>
+    <col min="3841" max="3841" width="3.140625" style="46" customWidth="1"/>
+    <col min="3842" max="3842" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3843" max="3846" width="9.140625" style="46"/>
+    <col min="3847" max="3847" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3848" max="3848" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3849" max="3849" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3850" max="3853" width="9.140625" style="46"/>
+    <col min="3854" max="3854" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3855" max="3855" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3856" max="3856" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3857" max="3860" width="9.140625" style="46"/>
+    <col min="3861" max="3861" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3862" max="3862" width="4.7109375" style="46" customWidth="1"/>
+    <col min="3863" max="3863" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3864" max="3867" width="9.140625" style="46"/>
+    <col min="3868" max="3868" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3869" max="4096" width="9.140625" style="46"/>
+    <col min="4097" max="4097" width="3.140625" style="46" customWidth="1"/>
+    <col min="4098" max="4098" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4099" max="4102" width="9.140625" style="46"/>
+    <col min="4103" max="4103" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4104" max="4104" width="4.7109375" style="46" customWidth="1"/>
+    <col min="4105" max="4105" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4106" max="4109" width="9.140625" style="46"/>
+    <col min="4110" max="4110" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4111" max="4111" width="4.7109375" style="46" customWidth="1"/>
+    <col min="4112" max="4112" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4113" max="4116" width="9.140625" style="46"/>
+    <col min="4117" max="4117" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4118" max="4118" width="4.7109375" style="46" customWidth="1"/>
+    <col min="4119" max="4119" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4120" max="4123" width="9.140625" style="46"/>
+    <col min="4124" max="4124" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4125" max="4352" width="9.140625" style="46"/>
+    <col min="4353" max="4353" width="3.140625" style="46" customWidth="1"/>
+    <col min="4354" max="4354" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4355" max="4358" width="9.140625" style="46"/>
+    <col min="4359" max="4359" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4360" max="4360" width="4.7109375" style="46" customWidth="1"/>
+    <col min="4361" max="4361" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4362" max="4365" width="9.140625" style="46"/>
+    <col min="4366" max="4366" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4367" max="4367" width="4.7109375" style="46" customWidth="1"/>
+    <col min="4368" max="4368" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4369" max="4372" width="9.140625" style="46"/>
+    <col min="4373" max="4373" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4374" max="4374" width="4.7109375" style="46" customWidth="1"/>
+    <col min="4375" max="4375" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4376" max="4379" width="9.140625" style="46"/>
+    <col min="4380" max="4380" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4381" max="4608" width="9.140625" style="46"/>
+    <col min="4609" max="4609" width="3.140625" style="46" customWidth="1"/>
+    <col min="4610" max="4610" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4611" max="4614" width="9.140625" style="46"/>
+    <col min="4615" max="4615" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4616" max="4616" width="4.7109375" style="46" customWidth="1"/>
+    <col min="4617" max="4617" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4618" max="4621" width="9.140625" style="46"/>
+    <col min="4622" max="4622" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4623" max="4623" width="4.7109375" style="46" customWidth="1"/>
+    <col min="4624" max="4624" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4625" max="4628" width="9.140625" style="46"/>
+    <col min="4629" max="4629" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4630" max="4630" width="4.7109375" style="46" customWidth="1"/>
+    <col min="4631" max="4631" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4632" max="4635" width="9.140625" style="46"/>
+    <col min="4636" max="4636" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4637" max="4864" width="9.140625" style="46"/>
+    <col min="4865" max="4865" width="3.140625" style="46" customWidth="1"/>
+    <col min="4866" max="4866" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4867" max="4870" width="9.140625" style="46"/>
+    <col min="4871" max="4871" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4872" max="4872" width="4.7109375" style="46" customWidth="1"/>
+    <col min="4873" max="4873" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4874" max="4877" width="9.140625" style="46"/>
+    <col min="4878" max="4878" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4879" max="4879" width="4.7109375" style="46" customWidth="1"/>
+    <col min="4880" max="4880" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4881" max="4884" width="9.140625" style="46"/>
+    <col min="4885" max="4885" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4886" max="4886" width="4.7109375" style="46" customWidth="1"/>
+    <col min="4887" max="4887" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4888" max="4891" width="9.140625" style="46"/>
+    <col min="4892" max="4892" width="3.7109375" style="46" customWidth="1"/>
+    <col min="4893" max="5120" width="9.140625" style="46"/>
+    <col min="5121" max="5121" width="3.140625" style="46" customWidth="1"/>
+    <col min="5122" max="5122" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5123" max="5126" width="9.140625" style="46"/>
+    <col min="5127" max="5127" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5128" max="5128" width="4.7109375" style="46" customWidth="1"/>
+    <col min="5129" max="5129" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5130" max="5133" width="9.140625" style="46"/>
+    <col min="5134" max="5134" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5135" max="5135" width="4.7109375" style="46" customWidth="1"/>
+    <col min="5136" max="5136" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5137" max="5140" width="9.140625" style="46"/>
+    <col min="5141" max="5141" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5142" max="5142" width="4.7109375" style="46" customWidth="1"/>
+    <col min="5143" max="5143" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5144" max="5147" width="9.140625" style="46"/>
+    <col min="5148" max="5148" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5149" max="5376" width="9.140625" style="46"/>
+    <col min="5377" max="5377" width="3.140625" style="46" customWidth="1"/>
+    <col min="5378" max="5378" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5379" max="5382" width="9.140625" style="46"/>
+    <col min="5383" max="5383" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5384" max="5384" width="4.7109375" style="46" customWidth="1"/>
+    <col min="5385" max="5385" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5386" max="5389" width="9.140625" style="46"/>
+    <col min="5390" max="5390" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5391" max="5391" width="4.7109375" style="46" customWidth="1"/>
+    <col min="5392" max="5392" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5393" max="5396" width="9.140625" style="46"/>
+    <col min="5397" max="5397" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5398" max="5398" width="4.7109375" style="46" customWidth="1"/>
+    <col min="5399" max="5399" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5400" max="5403" width="9.140625" style="46"/>
+    <col min="5404" max="5404" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5405" max="5632" width="9.140625" style="46"/>
+    <col min="5633" max="5633" width="3.140625" style="46" customWidth="1"/>
+    <col min="5634" max="5634" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5635" max="5638" width="9.140625" style="46"/>
+    <col min="5639" max="5639" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5640" max="5640" width="4.7109375" style="46" customWidth="1"/>
+    <col min="5641" max="5641" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5642" max="5645" width="9.140625" style="46"/>
+    <col min="5646" max="5646" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5647" max="5647" width="4.7109375" style="46" customWidth="1"/>
+    <col min="5648" max="5648" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5649" max="5652" width="9.140625" style="46"/>
+    <col min="5653" max="5653" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5654" max="5654" width="4.7109375" style="46" customWidth="1"/>
+    <col min="5655" max="5655" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5656" max="5659" width="9.140625" style="46"/>
+    <col min="5660" max="5660" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5661" max="5888" width="9.140625" style="46"/>
+    <col min="5889" max="5889" width="3.140625" style="46" customWidth="1"/>
+    <col min="5890" max="5890" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5891" max="5894" width="9.140625" style="46"/>
+    <col min="5895" max="5895" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5896" max="5896" width="4.7109375" style="46" customWidth="1"/>
+    <col min="5897" max="5897" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5898" max="5901" width="9.140625" style="46"/>
+    <col min="5902" max="5902" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5903" max="5903" width="4.7109375" style="46" customWidth="1"/>
+    <col min="5904" max="5904" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5905" max="5908" width="9.140625" style="46"/>
+    <col min="5909" max="5909" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5910" max="5910" width="4.7109375" style="46" customWidth="1"/>
+    <col min="5911" max="5911" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5912" max="5915" width="9.140625" style="46"/>
+    <col min="5916" max="5916" width="3.7109375" style="46" customWidth="1"/>
+    <col min="5917" max="6144" width="9.140625" style="46"/>
+    <col min="6145" max="6145" width="3.140625" style="46" customWidth="1"/>
+    <col min="6146" max="6146" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6147" max="6150" width="9.140625" style="46"/>
+    <col min="6151" max="6151" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6152" max="6152" width="4.7109375" style="46" customWidth="1"/>
+    <col min="6153" max="6153" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6154" max="6157" width="9.140625" style="46"/>
+    <col min="6158" max="6158" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6159" max="6159" width="4.7109375" style="46" customWidth="1"/>
+    <col min="6160" max="6160" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6161" max="6164" width="9.140625" style="46"/>
+    <col min="6165" max="6165" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6166" max="6166" width="4.7109375" style="46" customWidth="1"/>
+    <col min="6167" max="6167" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6168" max="6171" width="9.140625" style="46"/>
+    <col min="6172" max="6172" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6173" max="6400" width="9.140625" style="46"/>
+    <col min="6401" max="6401" width="3.140625" style="46" customWidth="1"/>
+    <col min="6402" max="6402" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6403" max="6406" width="9.140625" style="46"/>
+    <col min="6407" max="6407" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6408" max="6408" width="4.7109375" style="46" customWidth="1"/>
+    <col min="6409" max="6409" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6410" max="6413" width="9.140625" style="46"/>
+    <col min="6414" max="6414" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6415" max="6415" width="4.7109375" style="46" customWidth="1"/>
+    <col min="6416" max="6416" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6417" max="6420" width="9.140625" style="46"/>
+    <col min="6421" max="6421" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6422" max="6422" width="4.7109375" style="46" customWidth="1"/>
+    <col min="6423" max="6423" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6424" max="6427" width="9.140625" style="46"/>
+    <col min="6428" max="6428" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6429" max="6656" width="9.140625" style="46"/>
+    <col min="6657" max="6657" width="3.140625" style="46" customWidth="1"/>
+    <col min="6658" max="6658" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6659" max="6662" width="9.140625" style="46"/>
+    <col min="6663" max="6663" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6664" max="6664" width="4.7109375" style="46" customWidth="1"/>
+    <col min="6665" max="6665" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6666" max="6669" width="9.140625" style="46"/>
+    <col min="6670" max="6670" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6671" max="6671" width="4.7109375" style="46" customWidth="1"/>
+    <col min="6672" max="6672" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6673" max="6676" width="9.140625" style="46"/>
+    <col min="6677" max="6677" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6678" max="6678" width="4.7109375" style="46" customWidth="1"/>
+    <col min="6679" max="6679" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6680" max="6683" width="9.140625" style="46"/>
+    <col min="6684" max="6684" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6685" max="6912" width="9.140625" style="46"/>
+    <col min="6913" max="6913" width="3.140625" style="46" customWidth="1"/>
+    <col min="6914" max="6914" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6915" max="6918" width="9.140625" style="46"/>
+    <col min="6919" max="6919" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6920" max="6920" width="4.7109375" style="46" customWidth="1"/>
+    <col min="6921" max="6921" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6922" max="6925" width="9.140625" style="46"/>
+    <col min="6926" max="6926" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6927" max="6927" width="4.7109375" style="46" customWidth="1"/>
+    <col min="6928" max="6928" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6929" max="6932" width="9.140625" style="46"/>
+    <col min="6933" max="6933" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6934" max="6934" width="4.7109375" style="46" customWidth="1"/>
+    <col min="6935" max="6935" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6936" max="6939" width="9.140625" style="46"/>
+    <col min="6940" max="6940" width="3.7109375" style="46" customWidth="1"/>
+    <col min="6941" max="7168" width="9.140625" style="46"/>
+    <col min="7169" max="7169" width="3.140625" style="46" customWidth="1"/>
+    <col min="7170" max="7170" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7171" max="7174" width="9.140625" style="46"/>
+    <col min="7175" max="7175" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7176" max="7176" width="4.7109375" style="46" customWidth="1"/>
+    <col min="7177" max="7177" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7178" max="7181" width="9.140625" style="46"/>
+    <col min="7182" max="7182" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7183" max="7183" width="4.7109375" style="46" customWidth="1"/>
+    <col min="7184" max="7184" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7185" max="7188" width="9.140625" style="46"/>
+    <col min="7189" max="7189" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7190" max="7190" width="4.7109375" style="46" customWidth="1"/>
+    <col min="7191" max="7191" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7192" max="7195" width="9.140625" style="46"/>
+    <col min="7196" max="7196" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7197" max="7424" width="9.140625" style="46"/>
+    <col min="7425" max="7425" width="3.140625" style="46" customWidth="1"/>
+    <col min="7426" max="7426" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7427" max="7430" width="9.140625" style="46"/>
+    <col min="7431" max="7431" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7432" max="7432" width="4.7109375" style="46" customWidth="1"/>
+    <col min="7433" max="7433" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7434" max="7437" width="9.140625" style="46"/>
+    <col min="7438" max="7438" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7439" max="7439" width="4.7109375" style="46" customWidth="1"/>
+    <col min="7440" max="7440" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7441" max="7444" width="9.140625" style="46"/>
+    <col min="7445" max="7445" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7446" max="7446" width="4.7109375" style="46" customWidth="1"/>
+    <col min="7447" max="7447" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7448" max="7451" width="9.140625" style="46"/>
+    <col min="7452" max="7452" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7453" max="7680" width="9.140625" style="46"/>
+    <col min="7681" max="7681" width="3.140625" style="46" customWidth="1"/>
+    <col min="7682" max="7682" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7683" max="7686" width="9.140625" style="46"/>
+    <col min="7687" max="7687" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7688" max="7688" width="4.7109375" style="46" customWidth="1"/>
+    <col min="7689" max="7689" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7690" max="7693" width="9.140625" style="46"/>
+    <col min="7694" max="7694" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7695" max="7695" width="4.7109375" style="46" customWidth="1"/>
+    <col min="7696" max="7696" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7697" max="7700" width="9.140625" style="46"/>
+    <col min="7701" max="7701" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7702" max="7702" width="4.7109375" style="46" customWidth="1"/>
+    <col min="7703" max="7703" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7704" max="7707" width="9.140625" style="46"/>
+    <col min="7708" max="7708" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7709" max="7936" width="9.140625" style="46"/>
+    <col min="7937" max="7937" width="3.140625" style="46" customWidth="1"/>
+    <col min="7938" max="7938" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7939" max="7942" width="9.140625" style="46"/>
+    <col min="7943" max="7943" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7944" max="7944" width="4.7109375" style="46" customWidth="1"/>
+    <col min="7945" max="7945" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7946" max="7949" width="9.140625" style="46"/>
+    <col min="7950" max="7950" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7951" max="7951" width="4.7109375" style="46" customWidth="1"/>
+    <col min="7952" max="7952" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7953" max="7956" width="9.140625" style="46"/>
+    <col min="7957" max="7957" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7958" max="7958" width="4.7109375" style="46" customWidth="1"/>
+    <col min="7959" max="7959" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7960" max="7963" width="9.140625" style="46"/>
+    <col min="7964" max="7964" width="3.7109375" style="46" customWidth="1"/>
+    <col min="7965" max="8192" width="9.140625" style="46"/>
+    <col min="8193" max="8193" width="3.140625" style="46" customWidth="1"/>
+    <col min="8194" max="8194" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8195" max="8198" width="9.140625" style="46"/>
+    <col min="8199" max="8199" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8200" max="8200" width="4.7109375" style="46" customWidth="1"/>
+    <col min="8201" max="8201" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8202" max="8205" width="9.140625" style="46"/>
+    <col min="8206" max="8206" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8207" max="8207" width="4.7109375" style="46" customWidth="1"/>
+    <col min="8208" max="8208" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8209" max="8212" width="9.140625" style="46"/>
+    <col min="8213" max="8213" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8214" max="8214" width="4.7109375" style="46" customWidth="1"/>
+    <col min="8215" max="8215" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8216" max="8219" width="9.140625" style="46"/>
+    <col min="8220" max="8220" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8221" max="8448" width="9.140625" style="46"/>
+    <col min="8449" max="8449" width="3.140625" style="46" customWidth="1"/>
+    <col min="8450" max="8450" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8451" max="8454" width="9.140625" style="46"/>
+    <col min="8455" max="8455" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8456" max="8456" width="4.7109375" style="46" customWidth="1"/>
+    <col min="8457" max="8457" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8458" max="8461" width="9.140625" style="46"/>
+    <col min="8462" max="8462" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8463" max="8463" width="4.7109375" style="46" customWidth="1"/>
+    <col min="8464" max="8464" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8465" max="8468" width="9.140625" style="46"/>
+    <col min="8469" max="8469" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8470" max="8470" width="4.7109375" style="46" customWidth="1"/>
+    <col min="8471" max="8471" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8472" max="8475" width="9.140625" style="46"/>
+    <col min="8476" max="8476" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8477" max="8704" width="9.140625" style="46"/>
+    <col min="8705" max="8705" width="3.140625" style="46" customWidth="1"/>
+    <col min="8706" max="8706" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8707" max="8710" width="9.140625" style="46"/>
+    <col min="8711" max="8711" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8712" max="8712" width="4.7109375" style="46" customWidth="1"/>
+    <col min="8713" max="8713" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8714" max="8717" width="9.140625" style="46"/>
+    <col min="8718" max="8718" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8719" max="8719" width="4.7109375" style="46" customWidth="1"/>
+    <col min="8720" max="8720" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8721" max="8724" width="9.140625" style="46"/>
+    <col min="8725" max="8725" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8726" max="8726" width="4.7109375" style="46" customWidth="1"/>
+    <col min="8727" max="8727" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8728" max="8731" width="9.140625" style="46"/>
+    <col min="8732" max="8732" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8733" max="8960" width="9.140625" style="46"/>
+    <col min="8961" max="8961" width="3.140625" style="46" customWidth="1"/>
+    <col min="8962" max="8962" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8963" max="8966" width="9.140625" style="46"/>
+    <col min="8967" max="8967" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8968" max="8968" width="4.7109375" style="46" customWidth="1"/>
+    <col min="8969" max="8969" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8970" max="8973" width="9.140625" style="46"/>
+    <col min="8974" max="8974" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8975" max="8975" width="4.7109375" style="46" customWidth="1"/>
+    <col min="8976" max="8976" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8977" max="8980" width="9.140625" style="46"/>
+    <col min="8981" max="8981" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8982" max="8982" width="4.7109375" style="46" customWidth="1"/>
+    <col min="8983" max="8983" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8984" max="8987" width="9.140625" style="46"/>
+    <col min="8988" max="8988" width="3.7109375" style="46" customWidth="1"/>
+    <col min="8989" max="9216" width="9.140625" style="46"/>
+    <col min="9217" max="9217" width="3.140625" style="46" customWidth="1"/>
+    <col min="9218" max="9218" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9219" max="9222" width="9.140625" style="46"/>
+    <col min="9223" max="9223" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9224" max="9224" width="4.7109375" style="46" customWidth="1"/>
+    <col min="9225" max="9225" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9226" max="9229" width="9.140625" style="46"/>
+    <col min="9230" max="9230" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9231" max="9231" width="4.7109375" style="46" customWidth="1"/>
+    <col min="9232" max="9232" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9233" max="9236" width="9.140625" style="46"/>
+    <col min="9237" max="9237" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9238" max="9238" width="4.7109375" style="46" customWidth="1"/>
+    <col min="9239" max="9239" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9240" max="9243" width="9.140625" style="46"/>
+    <col min="9244" max="9244" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9245" max="9472" width="9.140625" style="46"/>
+    <col min="9473" max="9473" width="3.140625" style="46" customWidth="1"/>
+    <col min="9474" max="9474" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9475" max="9478" width="9.140625" style="46"/>
+    <col min="9479" max="9479" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9480" max="9480" width="4.7109375" style="46" customWidth="1"/>
+    <col min="9481" max="9481" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9482" max="9485" width="9.140625" style="46"/>
+    <col min="9486" max="9486" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9487" max="9487" width="4.7109375" style="46" customWidth="1"/>
+    <col min="9488" max="9488" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9489" max="9492" width="9.140625" style="46"/>
+    <col min="9493" max="9493" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9494" max="9494" width="4.7109375" style="46" customWidth="1"/>
+    <col min="9495" max="9495" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9496" max="9499" width="9.140625" style="46"/>
+    <col min="9500" max="9500" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9501" max="9728" width="9.140625" style="46"/>
+    <col min="9729" max="9729" width="3.140625" style="46" customWidth="1"/>
+    <col min="9730" max="9730" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9731" max="9734" width="9.140625" style="46"/>
+    <col min="9735" max="9735" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9736" max="9736" width="4.7109375" style="46" customWidth="1"/>
+    <col min="9737" max="9737" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9738" max="9741" width="9.140625" style="46"/>
+    <col min="9742" max="9742" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9743" max="9743" width="4.7109375" style="46" customWidth="1"/>
+    <col min="9744" max="9744" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9745" max="9748" width="9.140625" style="46"/>
+    <col min="9749" max="9749" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9750" max="9750" width="4.7109375" style="46" customWidth="1"/>
+    <col min="9751" max="9751" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9752" max="9755" width="9.140625" style="46"/>
+    <col min="9756" max="9756" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9757" max="9984" width="9.140625" style="46"/>
+    <col min="9985" max="9985" width="3.140625" style="46" customWidth="1"/>
+    <col min="9986" max="9986" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9987" max="9990" width="9.140625" style="46"/>
+    <col min="9991" max="9991" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9992" max="9992" width="4.7109375" style="46" customWidth="1"/>
+    <col min="9993" max="9993" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9994" max="9997" width="9.140625" style="46"/>
+    <col min="9998" max="9998" width="3.7109375" style="46" customWidth="1"/>
+    <col min="9999" max="9999" width="4.7109375" style="46" customWidth="1"/>
+    <col min="10000" max="10000" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10001" max="10004" width="9.140625" style="46"/>
+    <col min="10005" max="10005" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10006" max="10006" width="4.7109375" style="46" customWidth="1"/>
+    <col min="10007" max="10007" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10008" max="10011" width="9.140625" style="46"/>
+    <col min="10012" max="10012" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10013" max="10240" width="9.140625" style="46"/>
+    <col min="10241" max="10241" width="3.140625" style="46" customWidth="1"/>
+    <col min="10242" max="10242" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10243" max="10246" width="9.140625" style="46"/>
+    <col min="10247" max="10247" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10248" max="10248" width="4.7109375" style="46" customWidth="1"/>
+    <col min="10249" max="10249" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10250" max="10253" width="9.140625" style="46"/>
+    <col min="10254" max="10254" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10255" max="10255" width="4.7109375" style="46" customWidth="1"/>
+    <col min="10256" max="10256" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10257" max="10260" width="9.140625" style="46"/>
+    <col min="10261" max="10261" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10262" max="10262" width="4.7109375" style="46" customWidth="1"/>
+    <col min="10263" max="10263" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10264" max="10267" width="9.140625" style="46"/>
+    <col min="10268" max="10268" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10269" max="10496" width="9.140625" style="46"/>
+    <col min="10497" max="10497" width="3.140625" style="46" customWidth="1"/>
+    <col min="10498" max="10498" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10499" max="10502" width="9.140625" style="46"/>
+    <col min="10503" max="10503" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10504" max="10504" width="4.7109375" style="46" customWidth="1"/>
+    <col min="10505" max="10505" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10506" max="10509" width="9.140625" style="46"/>
+    <col min="10510" max="10510" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10511" max="10511" width="4.7109375" style="46" customWidth="1"/>
+    <col min="10512" max="10512" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10513" max="10516" width="9.140625" style="46"/>
+    <col min="10517" max="10517" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10518" max="10518" width="4.7109375" style="46" customWidth="1"/>
+    <col min="10519" max="10519" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10520" max="10523" width="9.140625" style="46"/>
+    <col min="10524" max="10524" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10525" max="10752" width="9.140625" style="46"/>
+    <col min="10753" max="10753" width="3.140625" style="46" customWidth="1"/>
+    <col min="10754" max="10754" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10755" max="10758" width="9.140625" style="46"/>
+    <col min="10759" max="10759" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10760" max="10760" width="4.7109375" style="46" customWidth="1"/>
+    <col min="10761" max="10761" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10762" max="10765" width="9.140625" style="46"/>
+    <col min="10766" max="10766" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10767" max="10767" width="4.7109375" style="46" customWidth="1"/>
+    <col min="10768" max="10768" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10769" max="10772" width="9.140625" style="46"/>
+    <col min="10773" max="10773" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10774" max="10774" width="4.7109375" style="46" customWidth="1"/>
+    <col min="10775" max="10775" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10776" max="10779" width="9.140625" style="46"/>
+    <col min="10780" max="10780" width="3.7109375" style="46" customWidth="1"/>
+    <col min="10781" max="11008" width="9.140625" style="46"/>
+    <col min="11009" max="11009" width="3.140625" style="46" customWidth="1"/>
+    <col min="11010" max="11010" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11011" max="11014" width="9.140625" style="46"/>
+    <col min="11015" max="11015" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11016" max="11016" width="4.7109375" style="46" customWidth="1"/>
+    <col min="11017" max="11017" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11018" max="11021" width="9.140625" style="46"/>
+    <col min="11022" max="11022" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11023" max="11023" width="4.7109375" style="46" customWidth="1"/>
+    <col min="11024" max="11024" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11025" max="11028" width="9.140625" style="46"/>
+    <col min="11029" max="11029" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11030" max="11030" width="4.7109375" style="46" customWidth="1"/>
+    <col min="11031" max="11031" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11032" max="11035" width="9.140625" style="46"/>
+    <col min="11036" max="11036" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11037" max="11264" width="9.140625" style="46"/>
+    <col min="11265" max="11265" width="3.140625" style="46" customWidth="1"/>
+    <col min="11266" max="11266" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11267" max="11270" width="9.140625" style="46"/>
+    <col min="11271" max="11271" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11272" max="11272" width="4.7109375" style="46" customWidth="1"/>
+    <col min="11273" max="11273" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11274" max="11277" width="9.140625" style="46"/>
+    <col min="11278" max="11278" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11279" max="11279" width="4.7109375" style="46" customWidth="1"/>
+    <col min="11280" max="11280" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11281" max="11284" width="9.140625" style="46"/>
+    <col min="11285" max="11285" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11286" max="11286" width="4.7109375" style="46" customWidth="1"/>
+    <col min="11287" max="11287" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11288" max="11291" width="9.140625" style="46"/>
+    <col min="11292" max="11292" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11293" max="11520" width="9.140625" style="46"/>
+    <col min="11521" max="11521" width="3.140625" style="46" customWidth="1"/>
+    <col min="11522" max="11522" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11523" max="11526" width="9.140625" style="46"/>
+    <col min="11527" max="11527" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11528" max="11528" width="4.7109375" style="46" customWidth="1"/>
+    <col min="11529" max="11529" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11530" max="11533" width="9.140625" style="46"/>
+    <col min="11534" max="11534" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11535" max="11535" width="4.7109375" style="46" customWidth="1"/>
+    <col min="11536" max="11536" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11537" max="11540" width="9.140625" style="46"/>
+    <col min="11541" max="11541" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11542" max="11542" width="4.7109375" style="46" customWidth="1"/>
+    <col min="11543" max="11543" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11544" max="11547" width="9.140625" style="46"/>
+    <col min="11548" max="11548" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11549" max="11776" width="9.140625" style="46"/>
+    <col min="11777" max="11777" width="3.140625" style="46" customWidth="1"/>
+    <col min="11778" max="11778" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11779" max="11782" width="9.140625" style="46"/>
+    <col min="11783" max="11783" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11784" max="11784" width="4.7109375" style="46" customWidth="1"/>
+    <col min="11785" max="11785" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11786" max="11789" width="9.140625" style="46"/>
+    <col min="11790" max="11790" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11791" max="11791" width="4.7109375" style="46" customWidth="1"/>
+    <col min="11792" max="11792" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11793" max="11796" width="9.140625" style="46"/>
+    <col min="11797" max="11797" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11798" max="11798" width="4.7109375" style="46" customWidth="1"/>
+    <col min="11799" max="11799" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11800" max="11803" width="9.140625" style="46"/>
+    <col min="11804" max="11804" width="3.7109375" style="46" customWidth="1"/>
+    <col min="11805" max="12032" width="9.140625" style="46"/>
+    <col min="12033" max="12033" width="3.140625" style="46" customWidth="1"/>
+    <col min="12034" max="12034" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12035" max="12038" width="9.140625" style="46"/>
+    <col min="12039" max="12039" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12040" max="12040" width="4.7109375" style="46" customWidth="1"/>
+    <col min="12041" max="12041" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12042" max="12045" width="9.140625" style="46"/>
+    <col min="12046" max="12046" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12047" max="12047" width="4.7109375" style="46" customWidth="1"/>
+    <col min="12048" max="12048" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12049" max="12052" width="9.140625" style="46"/>
+    <col min="12053" max="12053" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12054" max="12054" width="4.7109375" style="46" customWidth="1"/>
+    <col min="12055" max="12055" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12056" max="12059" width="9.140625" style="46"/>
+    <col min="12060" max="12060" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12061" max="12288" width="9.140625" style="46"/>
+    <col min="12289" max="12289" width="3.140625" style="46" customWidth="1"/>
+    <col min="12290" max="12290" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12291" max="12294" width="9.140625" style="46"/>
+    <col min="12295" max="12295" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12296" max="12296" width="4.7109375" style="46" customWidth="1"/>
+    <col min="12297" max="12297" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12298" max="12301" width="9.140625" style="46"/>
+    <col min="12302" max="12302" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12303" max="12303" width="4.7109375" style="46" customWidth="1"/>
+    <col min="12304" max="12304" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12305" max="12308" width="9.140625" style="46"/>
+    <col min="12309" max="12309" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12310" max="12310" width="4.7109375" style="46" customWidth="1"/>
+    <col min="12311" max="12311" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12312" max="12315" width="9.140625" style="46"/>
+    <col min="12316" max="12316" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12317" max="12544" width="9.140625" style="46"/>
+    <col min="12545" max="12545" width="3.140625" style="46" customWidth="1"/>
+    <col min="12546" max="12546" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12547" max="12550" width="9.140625" style="46"/>
+    <col min="12551" max="12551" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12552" max="12552" width="4.7109375" style="46" customWidth="1"/>
+    <col min="12553" max="12553" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12554" max="12557" width="9.140625" style="46"/>
+    <col min="12558" max="12558" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12559" max="12559" width="4.7109375" style="46" customWidth="1"/>
+    <col min="12560" max="12560" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12561" max="12564" width="9.140625" style="46"/>
+    <col min="12565" max="12565" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12566" max="12566" width="4.7109375" style="46" customWidth="1"/>
+    <col min="12567" max="12567" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12568" max="12571" width="9.140625" style="46"/>
+    <col min="12572" max="12572" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12573" max="12800" width="9.140625" style="46"/>
+    <col min="12801" max="12801" width="3.140625" style="46" customWidth="1"/>
+    <col min="12802" max="12802" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12803" max="12806" width="9.140625" style="46"/>
+    <col min="12807" max="12807" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12808" max="12808" width="4.7109375" style="46" customWidth="1"/>
+    <col min="12809" max="12809" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12810" max="12813" width="9.140625" style="46"/>
+    <col min="12814" max="12814" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12815" max="12815" width="4.7109375" style="46" customWidth="1"/>
+    <col min="12816" max="12816" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12817" max="12820" width="9.140625" style="46"/>
+    <col min="12821" max="12821" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12822" max="12822" width="4.7109375" style="46" customWidth="1"/>
+    <col min="12823" max="12823" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12824" max="12827" width="9.140625" style="46"/>
+    <col min="12828" max="12828" width="3.7109375" style="46" customWidth="1"/>
+    <col min="12829" max="13056" width="9.140625" style="46"/>
+    <col min="13057" max="13057" width="3.140625" style="46" customWidth="1"/>
+    <col min="13058" max="13058" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13059" max="13062" width="9.140625" style="46"/>
+    <col min="13063" max="13063" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13064" max="13064" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13065" max="13065" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13066" max="13069" width="9.140625" style="46"/>
+    <col min="13070" max="13070" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13071" max="13071" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13072" max="13072" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13073" max="13076" width="9.140625" style="46"/>
+    <col min="13077" max="13077" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13078" max="13078" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13079" max="13079" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13080" max="13083" width="9.140625" style="46"/>
+    <col min="13084" max="13084" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13085" max="13312" width="9.140625" style="46"/>
+    <col min="13313" max="13313" width="3.140625" style="46" customWidth="1"/>
+    <col min="13314" max="13314" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13315" max="13318" width="9.140625" style="46"/>
+    <col min="13319" max="13319" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13320" max="13320" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13321" max="13321" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13322" max="13325" width="9.140625" style="46"/>
+    <col min="13326" max="13326" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13327" max="13327" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13328" max="13328" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13329" max="13332" width="9.140625" style="46"/>
+    <col min="13333" max="13333" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13334" max="13334" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13335" max="13335" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13336" max="13339" width="9.140625" style="46"/>
+    <col min="13340" max="13340" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13341" max="13568" width="9.140625" style="46"/>
+    <col min="13569" max="13569" width="3.140625" style="46" customWidth="1"/>
+    <col min="13570" max="13570" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13571" max="13574" width="9.140625" style="46"/>
+    <col min="13575" max="13575" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13576" max="13576" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13577" max="13577" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13578" max="13581" width="9.140625" style="46"/>
+    <col min="13582" max="13582" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13583" max="13583" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13584" max="13584" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13585" max="13588" width="9.140625" style="46"/>
+    <col min="13589" max="13589" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13590" max="13590" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13591" max="13591" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13592" max="13595" width="9.140625" style="46"/>
+    <col min="13596" max="13596" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13597" max="13824" width="9.140625" style="46"/>
+    <col min="13825" max="13825" width="3.140625" style="46" customWidth="1"/>
+    <col min="13826" max="13826" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13827" max="13830" width="9.140625" style="46"/>
+    <col min="13831" max="13831" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13832" max="13832" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13833" max="13833" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13834" max="13837" width="9.140625" style="46"/>
+    <col min="13838" max="13838" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13839" max="13839" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13840" max="13840" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13841" max="13844" width="9.140625" style="46"/>
+    <col min="13845" max="13845" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13846" max="13846" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13847" max="13847" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13848" max="13851" width="9.140625" style="46"/>
+    <col min="13852" max="13852" width="3.7109375" style="46" customWidth="1"/>
+    <col min="13853" max="14080" width="9.140625" style="46"/>
+    <col min="14081" max="14081" width="3.140625" style="46" customWidth="1"/>
+    <col min="14082" max="14082" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14083" max="14086" width="9.140625" style="46"/>
+    <col min="14087" max="14087" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14088" max="14088" width="4.7109375" style="46" customWidth="1"/>
+    <col min="14089" max="14089" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14090" max="14093" width="9.140625" style="46"/>
+    <col min="14094" max="14094" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14095" max="14095" width="4.7109375" style="46" customWidth="1"/>
+    <col min="14096" max="14096" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14097" max="14100" width="9.140625" style="46"/>
+    <col min="14101" max="14101" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14102" max="14102" width="4.7109375" style="46" customWidth="1"/>
+    <col min="14103" max="14103" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14104" max="14107" width="9.140625" style="46"/>
+    <col min="14108" max="14108" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14109" max="14336" width="9.140625" style="46"/>
+    <col min="14337" max="14337" width="3.140625" style="46" customWidth="1"/>
+    <col min="14338" max="14338" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14339" max="14342" width="9.140625" style="46"/>
+    <col min="14343" max="14343" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14344" max="14344" width="4.7109375" style="46" customWidth="1"/>
+    <col min="14345" max="14345" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14346" max="14349" width="9.140625" style="46"/>
+    <col min="14350" max="14350" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14351" max="14351" width="4.7109375" style="46" customWidth="1"/>
+    <col min="14352" max="14352" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14353" max="14356" width="9.140625" style="46"/>
+    <col min="14357" max="14357" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14358" max="14358" width="4.7109375" style="46" customWidth="1"/>
+    <col min="14359" max="14359" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14360" max="14363" width="9.140625" style="46"/>
+    <col min="14364" max="14364" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14365" max="14592" width="9.140625" style="46"/>
+    <col min="14593" max="14593" width="3.140625" style="46" customWidth="1"/>
+    <col min="14594" max="14594" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14595" max="14598" width="9.140625" style="46"/>
+    <col min="14599" max="14599" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14600" max="14600" width="4.7109375" style="46" customWidth="1"/>
+    <col min="14601" max="14601" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14602" max="14605" width="9.140625" style="46"/>
+    <col min="14606" max="14606" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14607" max="14607" width="4.7109375" style="46" customWidth="1"/>
+    <col min="14608" max="14608" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14609" max="14612" width="9.140625" style="46"/>
+    <col min="14613" max="14613" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14614" max="14614" width="4.7109375" style="46" customWidth="1"/>
+    <col min="14615" max="14615" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14616" max="14619" width="9.140625" style="46"/>
+    <col min="14620" max="14620" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14621" max="14848" width="9.140625" style="46"/>
+    <col min="14849" max="14849" width="3.140625" style="46" customWidth="1"/>
+    <col min="14850" max="14850" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14851" max="14854" width="9.140625" style="46"/>
+    <col min="14855" max="14855" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14856" max="14856" width="4.7109375" style="46" customWidth="1"/>
+    <col min="14857" max="14857" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14858" max="14861" width="9.140625" style="46"/>
+    <col min="14862" max="14862" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14863" max="14863" width="4.7109375" style="46" customWidth="1"/>
+    <col min="14864" max="14864" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14865" max="14868" width="9.140625" style="46"/>
+    <col min="14869" max="14869" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14870" max="14870" width="4.7109375" style="46" customWidth="1"/>
+    <col min="14871" max="14871" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14872" max="14875" width="9.140625" style="46"/>
+    <col min="14876" max="14876" width="3.7109375" style="46" customWidth="1"/>
+    <col min="14877" max="15104" width="9.140625" style="46"/>
+    <col min="15105" max="15105" width="3.140625" style="46" customWidth="1"/>
+    <col min="15106" max="15106" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15107" max="15110" width="9.140625" style="46"/>
+    <col min="15111" max="15111" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15112" max="15112" width="4.7109375" style="46" customWidth="1"/>
+    <col min="15113" max="15113" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15114" max="15117" width="9.140625" style="46"/>
+    <col min="15118" max="15118" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15119" max="15119" width="4.7109375" style="46" customWidth="1"/>
+    <col min="15120" max="15120" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15121" max="15124" width="9.140625" style="46"/>
+    <col min="15125" max="15125" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15126" max="15126" width="4.7109375" style="46" customWidth="1"/>
+    <col min="15127" max="15127" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15128" max="15131" width="9.140625" style="46"/>
+    <col min="15132" max="15132" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15133" max="15360" width="9.140625" style="46"/>
+    <col min="15361" max="15361" width="3.140625" style="46" customWidth="1"/>
+    <col min="15362" max="15362" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15363" max="15366" width="9.140625" style="46"/>
+    <col min="15367" max="15367" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15368" max="15368" width="4.7109375" style="46" customWidth="1"/>
+    <col min="15369" max="15369" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15370" max="15373" width="9.140625" style="46"/>
+    <col min="15374" max="15374" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15375" max="15375" width="4.7109375" style="46" customWidth="1"/>
+    <col min="15376" max="15376" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15377" max="15380" width="9.140625" style="46"/>
+    <col min="15381" max="15381" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15382" max="15382" width="4.7109375" style="46" customWidth="1"/>
+    <col min="15383" max="15383" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15384" max="15387" width="9.140625" style="46"/>
+    <col min="15388" max="15388" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15389" max="15616" width="9.140625" style="46"/>
+    <col min="15617" max="15617" width="3.140625" style="46" customWidth="1"/>
+    <col min="15618" max="15618" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15619" max="15622" width="9.140625" style="46"/>
+    <col min="15623" max="15623" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15624" max="15624" width="4.7109375" style="46" customWidth="1"/>
+    <col min="15625" max="15625" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15626" max="15629" width="9.140625" style="46"/>
+    <col min="15630" max="15630" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15631" max="15631" width="4.7109375" style="46" customWidth="1"/>
+    <col min="15632" max="15632" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15633" max="15636" width="9.140625" style="46"/>
+    <col min="15637" max="15637" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15638" max="15638" width="4.7109375" style="46" customWidth="1"/>
+    <col min="15639" max="15639" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15640" max="15643" width="9.140625" style="46"/>
+    <col min="15644" max="15644" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15645" max="15872" width="9.140625" style="46"/>
+    <col min="15873" max="15873" width="3.140625" style="46" customWidth="1"/>
+    <col min="15874" max="15874" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15875" max="15878" width="9.140625" style="46"/>
+    <col min="15879" max="15879" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15880" max="15880" width="4.7109375" style="46" customWidth="1"/>
+    <col min="15881" max="15881" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15882" max="15885" width="9.140625" style="46"/>
+    <col min="15886" max="15886" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15887" max="15887" width="4.7109375" style="46" customWidth="1"/>
+    <col min="15888" max="15888" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15889" max="15892" width="9.140625" style="46"/>
+    <col min="15893" max="15893" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15894" max="15894" width="4.7109375" style="46" customWidth="1"/>
+    <col min="15895" max="15895" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15896" max="15899" width="9.140625" style="46"/>
+    <col min="15900" max="15900" width="3.7109375" style="46" customWidth="1"/>
+    <col min="15901" max="16128" width="9.140625" style="46"/>
+    <col min="16129" max="16129" width="3.140625" style="46" customWidth="1"/>
+    <col min="16130" max="16130" width="3.7109375" style="46" customWidth="1"/>
+    <col min="16131" max="16134" width="9.140625" style="46"/>
+    <col min="16135" max="16135" width="3.7109375" style="46" customWidth="1"/>
+    <col min="16136" max="16136" width="4.7109375" style="46" customWidth="1"/>
+    <col min="16137" max="16137" width="3.7109375" style="46" customWidth="1"/>
+    <col min="16138" max="16141" width="9.140625" style="46"/>
+    <col min="16142" max="16142" width="3.7109375" style="46" customWidth="1"/>
+    <col min="16143" max="16143" width="4.7109375" style="46" customWidth="1"/>
+    <col min="16144" max="16144" width="3.7109375" style="46" customWidth="1"/>
+    <col min="16145" max="16148" width="9.140625" style="46"/>
+    <col min="16149" max="16149" width="3.7109375" style="46" customWidth="1"/>
+    <col min="16150" max="16150" width="4.7109375" style="46" customWidth="1"/>
+    <col min="16151" max="16151" width="3.7109375" style="46" customWidth="1"/>
+    <col min="16152" max="16155" width="9.140625" style="46"/>
+    <col min="16156" max="16156" width="3.7109375" style="46" customWidth="1"/>
+    <col min="16157" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:28" s="43" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="40" t="s">
-        <v>29</v>
+    <row r="3" spans="2:28" s="50" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="47" t="s">
+        <v>42</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="I3" s="44" t="s">
-        <v>30</v>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="I3" s="51" t="s">
+        <v>43</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="P3" s="44" t="s">
-        <v>31</v>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="P3" s="51" t="s">
+        <v>44</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46"/>
-      <c r="W3" s="40" t="s">
-        <v>32</v>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="53"/>
+      <c r="W3" s="47" t="s">
+        <v>45</v>
       </c>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="42"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="49"/>
     </row>
     <row r="4" spans="2:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="N4" s="51"/>
-      <c r="P4" s="50"/>
-      <c r="U4" s="51"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="P4" s="57"/>
+      <c r="U4" s="58"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="56"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
-      <c r="I5" s="50"/>
-      <c r="N5" s="51"/>
-      <c r="P5" s="50"/>
-      <c r="U5" s="51"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="54"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="I5" s="57"/>
+      <c r="N5" s="58"/>
+      <c r="P5" s="57"/>
+      <c r="U5" s="58"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="61"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="I6" s="50"/>
-      <c r="N6" s="51"/>
-      <c r="P6" s="50"/>
-      <c r="U6" s="51"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="54"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="I6" s="57"/>
+      <c r="N6" s="58"/>
+      <c r="P6" s="57"/>
+      <c r="U6" s="58"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="61"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="I7" s="50"/>
-      <c r="N7" s="51"/>
-      <c r="P7" s="50"/>
-      <c r="U7" s="51"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="54"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="I7" s="57"/>
+      <c r="N7" s="58"/>
+      <c r="P7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="61"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="I8" s="50"/>
-      <c r="N8" s="51"/>
-      <c r="P8" s="50"/>
-      <c r="U8" s="51"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="54"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="I8" s="57"/>
+      <c r="N8" s="58"/>
+      <c r="P8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="61"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="I9" s="50"/>
-      <c r="N9" s="51"/>
-      <c r="P9" s="50"/>
-      <c r="U9" s="51"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="54"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="I9" s="57"/>
+      <c r="N9" s="58"/>
+      <c r="P9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="61"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="I10" s="50"/>
-      <c r="N10" s="51"/>
-      <c r="P10" s="50"/>
-      <c r="U10" s="51"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="54"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="I10" s="57"/>
+      <c r="N10" s="58"/>
+      <c r="P10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="61"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="I11" s="50"/>
-      <c r="N11" s="51"/>
-      <c r="P11" s="50"/>
-      <c r="U11" s="51"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="54"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="I11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="P11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="61"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="I12" s="50"/>
-      <c r="N12" s="51"/>
-      <c r="P12" s="50"/>
-      <c r="U12" s="51"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="54"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="I12" s="57"/>
+      <c r="N12" s="58"/>
+      <c r="P12" s="57"/>
+      <c r="U12" s="58"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="61"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
-      <c r="I13" s="50"/>
-      <c r="N13" s="51"/>
-      <c r="P13" s="50"/>
-      <c r="U13" s="51"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="54"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="I13" s="57"/>
+      <c r="N13" s="58"/>
+      <c r="P13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="61"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="I14" s="50"/>
-      <c r="N14" s="51"/>
-      <c r="P14" s="50"/>
-      <c r="U14" s="51"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="54"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="I14" s="57"/>
+      <c r="N14" s="58"/>
+      <c r="P14" s="57"/>
+      <c r="U14" s="58"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="61"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="I15" s="50"/>
-      <c r="N15" s="51"/>
-      <c r="P15" s="50"/>
-      <c r="U15" s="51"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="54"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="I15" s="57"/>
+      <c r="N15" s="58"/>
+      <c r="P15" s="57"/>
+      <c r="U15" s="58"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="61"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="I16" s="50"/>
-      <c r="N16" s="51"/>
-      <c r="P16" s="50"/>
-      <c r="U16" s="51"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="54"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="I16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="P16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="61"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="I17" s="50"/>
-      <c r="N17" s="51"/>
-      <c r="P17" s="50"/>
-      <c r="U17" s="51"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="54"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="I17" s="57"/>
+      <c r="N17" s="58"/>
+      <c r="P17" s="57"/>
+      <c r="U17" s="58"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="61"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="I18" s="50"/>
-      <c r="N18" s="51"/>
-      <c r="P18" s="50"/>
-      <c r="U18" s="51"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="54"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="I18" s="57"/>
+      <c r="N18" s="58"/>
+      <c r="P18" s="57"/>
+      <c r="U18" s="58"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="61"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="I19" s="50"/>
-      <c r="N19" s="51"/>
-      <c r="P19" s="50"/>
-      <c r="U19" s="51"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="54"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+      <c r="I19" s="57"/>
+      <c r="N19" s="58"/>
+      <c r="P19" s="57"/>
+      <c r="U19" s="58"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="61"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="I20" s="50"/>
-      <c r="N20" s="51"/>
-      <c r="P20" s="50"/>
-      <c r="U20" s="51"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="54"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+      <c r="I20" s="57"/>
+      <c r="N20" s="58"/>
+      <c r="P20" s="57"/>
+      <c r="U20" s="58"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="61"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="I21" s="50"/>
-      <c r="N21" s="51"/>
-      <c r="P21" s="50"/>
-      <c r="U21" s="51"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="I21" s="57"/>
+      <c r="N21" s="58"/>
+      <c r="P21" s="57"/>
+      <c r="U21" s="58"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="61"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="I22" s="50"/>
-      <c r="N22" s="51"/>
-      <c r="P22" s="50"/>
-      <c r="U22" s="51"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="54"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="I22" s="57"/>
+      <c r="N22" s="58"/>
+      <c r="P22" s="57"/>
+      <c r="U22" s="58"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="61"/>
     </row>
     <row r="23" spans="2:28" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="60"/>
-      <c r="W23" s="61" t="s">
-        <v>33</v>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="67"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="67"/>
+      <c r="W23" s="68" t="s">
+        <v>46</v>
       </c>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="63"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="69"/>
+      <c r="AB23" s="70"/>
     </row>
     <row r="24" spans="2:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5501,7 +5675,7 @@
     <mergeCell ref="W23:AB23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="W23" r:id="rId1" xr:uid="{C59043FF-4166-475D-96C3-142A5F37D9B5}"/>
+    <hyperlink ref="W23" r:id="rId1" xr:uid="{EE103978-0B06-4C2E-B50F-8B7FDB5B9C01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -5509,566 +5683,557 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265D4FF9-B75F-4908-9B26-475DDC9D661C}">
-  <dimension ref="B16:K50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7829073-F180-4368-AA19-06BDB0F8D773}">
+  <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="5"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
     </row>
-    <row r="18" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
+    <row r="3" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+    <row r="4" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="37"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+    <row r="6" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="42"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+    <row r="13" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+    <row r="14" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
+    <row r="15" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+    </row>
+    <row r="17" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+    <row r="18" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+    </row>
+    <row r="20" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
-        <v>8</v>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>20</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+    <row r="21" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
-        <v>16</v>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+    </row>
+    <row r="22" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19" t="s">
-        <v>16</v>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39"/>
+    </row>
+    <row r="24" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>18</v>
       </c>
-      <c r="K29" s="20"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="40"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="11"/>
+    <row r="25" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
-        <v>12</v>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>26</v>
       </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="11"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
+      <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="37"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="29"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="29"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="29"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="29"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="11"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
-    </row>
-    <row r="47" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="35"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="26"/>
-    </row>
-    <row r="50" spans="2:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="32"/>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="B49:K50"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B43:K44"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B46:K47"/>
-    <mergeCell ref="B41:K42"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B23:K24"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="J29:K29"/>
+  <mergeCells count="72">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B29:F32"/>
+    <mergeCell ref="G29:K32"/>
     <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B17:K18"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
